--- a/web/database_design.xlsx
+++ b/web/database_design.xlsx
@@ -9,34 +9,35 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="6240" tabRatio="957"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="6240" tabRatio="957" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="grants_infor" sheetId="1" r:id="rId1"/>
-    <sheet name="solicitation_infor" sheetId="41" r:id="rId2"/>
-    <sheet name="opts_submissionmeans" sheetId="42" r:id="rId3"/>
-    <sheet name="applicants_details" sheetId="49" r:id="rId4"/>
-    <sheet name="evaluation_details" sheetId="54" r:id="rId5"/>
-    <sheet name="pre_award_assessment" sheetId="50" r:id="rId6"/>
-    <sheet name="opts_recommendation" sheetId="52" r:id="rId7"/>
-    <sheet name="opts_modification_number" sheetId="53" r:id="rId8"/>
-    <sheet name="subrecipient_infor" sheetId="6" r:id="rId9"/>
-    <sheet name="opts_subrecipientstatus" sheetId="44" r:id="rId10"/>
-    <sheet name="opts_subaward_type" sheetId="11" r:id="rId11"/>
-    <sheet name="opts_applicable_indirect_cost" sheetId="10" r:id="rId12"/>
-    <sheet name="opts_entitytype" sheetId="9" r:id="rId13"/>
-    <sheet name="opts_reportingfrequency" sheetId="8" r:id="rId14"/>
-    <sheet name="opts_currency" sheetId="7" r:id="rId15"/>
-    <sheet name="subaward_lop_budget" sheetId="12" r:id="rId16"/>
-    <sheet name="obligation_infor" sheetId="17" r:id="rId17"/>
-    <sheet name="modification_details" sheetId="22" r:id="rId18"/>
-    <sheet name="financial_reports" sheetId="30" r:id="rId19"/>
-    <sheet name="cost_share_infor" sheetId="35" r:id="rId20"/>
-    <sheet name="sub_award_close_out" sheetId="51" r:id="rId21"/>
+    <sheet name="key input fields" sheetId="55" r:id="rId1"/>
+    <sheet name="grants_infor" sheetId="1" r:id="rId2"/>
+    <sheet name="solicitation_infor" sheetId="41" r:id="rId3"/>
+    <sheet name="opts_submissionmeans" sheetId="42" r:id="rId4"/>
+    <sheet name="applicants_details" sheetId="49" r:id="rId5"/>
+    <sheet name="evaluation_details" sheetId="54" r:id="rId6"/>
+    <sheet name="pre_award_assessment" sheetId="50" r:id="rId7"/>
+    <sheet name="opts_recommendation" sheetId="52" r:id="rId8"/>
+    <sheet name="opts_modification_number" sheetId="53" r:id="rId9"/>
+    <sheet name="subrecipient_infor" sheetId="6" r:id="rId10"/>
+    <sheet name="opts_subrecipientstatus" sheetId="44" r:id="rId11"/>
+    <sheet name="opts_subaward_type" sheetId="11" r:id="rId12"/>
+    <sheet name="opts_applicable_indirect_cost" sheetId="10" r:id="rId13"/>
+    <sheet name="opts_entitytype" sheetId="9" r:id="rId14"/>
+    <sheet name="opts_reportingfrequency" sheetId="8" r:id="rId15"/>
+    <sheet name="opts_currency" sheetId="7" r:id="rId16"/>
+    <sheet name="subaward_lop_budget" sheetId="12" r:id="rId17"/>
+    <sheet name="obligation_infor" sheetId="17" r:id="rId18"/>
+    <sheet name="modification_details" sheetId="22" r:id="rId19"/>
+    <sheet name="financial_reports" sheetId="30" r:id="rId20"/>
+    <sheet name="cost_share_infor" sheetId="35" r:id="rId21"/>
+    <sheet name="sub_award_close_out" sheetId="51" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk100664909" localSheetId="0">grants_infor!$F$7</definedName>
-    <definedName name="OLE_LINK1" localSheetId="8">subrecipient_infor!$A$10</definedName>
+    <definedName name="_Hlk100664909" localSheetId="1">grants_infor!$F$7</definedName>
+    <definedName name="OLE_LINK1" localSheetId="9">subrecipient_infor!$A$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="605">
   <si>
     <t>1.0 Grant Information</t>
   </si>
@@ -2893,9 +2894,6 @@
     </r>
   </si>
   <si>
-    <t>Get the donor_code</t>
-  </si>
-  <si>
     <t>This carries</t>
   </si>
   <si>
@@ -3015,9 +3013,6 @@
     <t>Award_amount</t>
   </si>
   <si>
-    <t>award_amount</t>
-  </si>
-  <si>
     <t>subaward_agreement_location</t>
   </si>
   <si>
@@ -4980,9 +4975,6 @@
     <t>sdhgfddsjs</t>
   </si>
   <si>
-    <t>This data should be saved on the applicant details tables. On the interface, it will require a new</t>
-  </si>
-  <si>
     <t>sub_recipient_id</t>
   </si>
   <si>
@@ -5023,6 +5015,95 @@
   </si>
   <si>
     <t>sdfsfdsfswerw</t>
+  </si>
+  <si>
+    <t>This data should be saved on the applicant details tables. On the interface, it will require a new one</t>
+  </si>
+  <si>
+    <t>Donor Name</t>
+  </si>
+  <si>
+    <t>Donar Code</t>
+  </si>
+  <si>
+    <t>Prime Recipient</t>
+  </si>
+  <si>
+    <t>Prime Award Number</t>
+  </si>
+  <si>
+    <t>Country of Implementation</t>
+  </si>
+  <si>
+    <t>Implementation Start Date</t>
+  </si>
+  <si>
+    <t>Implemntation End Date</t>
+  </si>
+  <si>
+    <t>Obligation End Date</t>
+  </si>
+  <si>
+    <t>Cost Share Obligation</t>
+  </si>
+  <si>
+    <t>Grant Amount</t>
+  </si>
+  <si>
+    <t>input Field</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>input date</t>
+  </si>
+  <si>
+    <t>Teaxt Area</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Input with placeholder</t>
+  </si>
+  <si>
+    <t>&lt;div class='form-group'&gt;
+&lt;label for='exampleInputEmail1'&gt;Email address&lt;/label&gt;
+&lt;input type='input' class='form-control' id='exampleInputEmail1' name=''  placeholder=''/&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class='form-group'&gt;
+&lt;label for='exampleInputEmail1'&gt;Email address&lt;/label&gt;
+&lt;input type='input' class='form-control' id='exampleInputEmail1' aria-describedby='emailHelp' name=''  placeholder=''&gt;
+&lt;small id='emailHelp' class='form-text text-muted'&gt;We'll never share your email with anyone else.&lt;/small&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;div class='form-group'&gt;
+&lt;label for='exampleFormControlTextarea1'&gt;Example textarea&lt;/label&gt;
+&lt;textarea class='form-control' id='exampleFormControlTextarea1' rows='3'&gt;&lt;/textarea&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;div class='form-group'&gt;
+&lt;label for='exampleFormControlSelect1'&gt;Example select&lt;/label&gt;
+&lt;select class='form-control' id='exampleFormControlSelect1'&gt;
+&lt;/select&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Deloitte &amp; Touche Limited</t>
   </si>
 </sst>
 </file>
@@ -5116,7 +5197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -5286,11 +5367,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
@@ -5404,21 +5498,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -5429,6 +5508,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5455,6 +5540,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5736,162 +5848,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="B6:C14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.73046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.9296875" style="81" customWidth="1"/>
+    <col min="3" max="3" width="107.06640625" customWidth="1"/>
+    <col min="4" max="4" width="43.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4">
-        <v>84478</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5">
-        <v>44317</v>
-      </c>
-      <c r="H2" s="5">
-        <v>46142</v>
-      </c>
-      <c r="I2" s="5">
-        <v>46142</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F6" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F15" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D18" s="6" t="s">
-        <v>361</v>
+    <row r="6" spans="2:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="82" t="s">
+        <v>596</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B8" s="82" t="s">
+        <v>597</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="82" t="s">
+        <v>598</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B14" s="82" t="s">
+        <v>599</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2">
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="32.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="5">
+        <v>44564</v>
+      </c>
+      <c r="G2" s="5">
+        <v>46111</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J3" t="s">
+        <v>242</v>
+      </c>
+      <c r="L3" t="s">
+        <v>244</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="S4" s="25" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="74" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16">
     <tabColor theme="4"/>
@@ -5913,18 +6176,18 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -5932,10 +6195,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -5943,10 +6206,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -5957,7 +6220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <tabColor theme="4"/>
@@ -5982,7 +6245,7 @@
         <v>236</v>
       </c>
       <c r="C1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -6034,7 +6297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <tabColor theme="4"/>
@@ -6059,7 +6322,7 @@
         <v>218</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -6105,7 +6368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <tabColor theme="4"/>
@@ -6129,7 +6392,7 @@
         <v>237</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -6214,7 +6477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6">
     <tabColor theme="4"/>
@@ -6238,7 +6501,7 @@
         <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -6290,7 +6553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7">
     <tabColor theme="4"/>
@@ -6315,7 +6578,7 @@
         <v>45</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -7234,7 +7497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8">
     <tabColor theme="4"/>
@@ -7283,7 +7546,7 @@
         <v>261</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>262</v>
@@ -7313,7 +7576,7 @@
         <v>271</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="142.5" x14ac:dyDescent="0.45">
@@ -7336,7 +7599,7 @@
         <v>278</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>277</v>
@@ -7366,7 +7629,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
@@ -7376,7 +7639,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="D7" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
@@ -7429,7 +7692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9">
     <tabColor theme="8"/>
@@ -7477,7 +7740,7 @@
         <v>259</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>260</v>
@@ -7531,7 +7794,7 @@
         <v>280</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>279</v>
@@ -7631,7 +7894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10">
     <tabColor theme="4"/>
@@ -7689,7 +7952,7 @@
         <v>33</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>302</v>
@@ -7707,31 +7970,31 @@
         <v>305</v>
       </c>
       <c r="I1" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="O1" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="N1" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>400</v>
-      </c>
       <c r="P1" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="R1" s="29" t="s">
         <v>268</v>
@@ -7748,19 +8011,19 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>259</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>260</v>
@@ -7781,22 +8044,22 @@
         <v>318</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="R2" s="14">
         <v>44965.416701388887</v>
@@ -7805,13 +8068,13 @@
         <v>44965.416701388887</v>
       </c>
       <c r="T2" s="29" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="U2" s="29">
         <v>1</v>
       </c>
       <c r="AA2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AF2" s="23" t="s">
         <v>329</v>
@@ -7837,22 +8100,22 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="C4" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="C5" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="C6" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="C7" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>296</v>
@@ -7880,7 +8143,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>300</v>
@@ -7888,7 +8151,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>301</v>
@@ -7899,17 +8162,17 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="G13" s="23" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="G14" s="23" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="G15" s="23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.45">
@@ -7917,22 +8180,22 @@
         <v>308</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G17" s="23" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G18" s="23" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G19" s="23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -7941,7 +8204,412 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1">
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.73046875" customWidth="1"/>
+    <col min="6" max="6" width="67.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E2" s="4">
+        <v>84478</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5">
+        <v>44317</v>
+      </c>
+      <c r="H2" s="5">
+        <v>46142</v>
+      </c>
+      <c r="I2" s="5">
+        <v>46142</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D3" t="s">
+        <v>583</v>
+      </c>
+      <c r="E3" t="s">
+        <v>584</v>
+      </c>
+      <c r="F3" t="s">
+        <v>585</v>
+      </c>
+      <c r="G3" t="s">
+        <v>586</v>
+      </c>
+      <c r="H3" t="s">
+        <v>587</v>
+      </c>
+      <c r="I3" t="s">
+        <v>588</v>
+      </c>
+      <c r="J3" t="s">
+        <v>589</v>
+      </c>
+      <c r="K3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F15" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39" t="s">
+        <v>591</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="59.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>414</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E17" s="80" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A17&amp;"'&gt;&lt;b&gt;"&amp;C17&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='"&amp;A17&amp;"' name='"&amp;A17&amp;"'  placeholder='Enter "&amp;C17&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='donor_name'&gt;&lt;b&gt;Donor Name&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='donor_name' name='donor_name'  placeholder='Enter Donor Name'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="61.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E18" s="80" t="str">
+        <f t="shared" ref="E18:E25" si="0">"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A18&amp;"'&gt;&lt;b&gt;"&amp;C18&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='"&amp;A18&amp;"' name='"&amp;A18&amp;"'  placeholder='Enter "&amp;C18&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='donor_code'&gt;&lt;b&gt;Donar Code&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='donor_code' name='donor_code'  placeholder='Enter Donar Code'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A19" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E19" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='prime_recipient'&gt;&lt;b&gt;Prime Recipient&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='prime_recipient' name='prime_recipient'  placeholder='Enter Prime Recipient'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A20" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="78">
+        <v>84478</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E20" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='prime_award_number'&gt;&lt;b&gt;Prime Award Number&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='prime_award_number' name='prime_award_number'  placeholder='Enter Prime Award Number'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A21" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E21" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='country_of_implementation'&gt;&lt;b&gt;Country of Implementation&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='country_of_implementation' name='country_of_implementation'  placeholder='Enter Country of Implementation'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A22" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="79">
+        <v>44317</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E22" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='implementation_startdate'&gt;&lt;b&gt;Implementation Start Date&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='implementation_startdate' name='implementation_startdate'  placeholder='Enter Implementation Start Date'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A23" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="79">
+        <v>46142</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E23" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='implementation_enddate'&gt;&lt;b&gt;Implemntation End Date&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='implementation_enddate' name='implementation_enddate'  placeholder='Enter Implemntation End Date'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A24" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="79">
+        <v>46142</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E24" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='obligation_enddate'&gt;&lt;b&gt;Obligation End Date&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='obligation_enddate' name='obligation_enddate'  placeholder='Enter Obligation End Date'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A25" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="78"/>
+      <c r="C25" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E25" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='costshare_obligation'&gt;&lt;b&gt;Cost Share Obligation&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='costshare_obligation' name='costshare_obligation'  placeholder='Enter Cost Share Obligation'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A26" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="78"/>
+      <c r="C26" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="80" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A26&amp;"'&gt;&lt;b&gt;"&amp;C26&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='"&amp;A26&amp;"' name='"&amp;A26&amp;"'  placeholder='Enter "&amp;C26&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='grant_amount'&gt;&lt;b&gt;Grant Amount&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='grant_amount' name='grant_amount'  placeholder='Enter Grant Amount'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12">
     <tabColor rgb="FFFF0000"/>
@@ -7989,7 +8657,7 @@
         <v>259</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>260</v>
@@ -8031,7 +8699,7 @@
         <v>271</v>
       </c>
       <c r="T1" s="38" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
@@ -8159,7 +8827,489 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="K2" s="14">
+        <v>44965.416701388887</v>
+      </c>
+      <c r="L2" s="14">
+        <v>44965.416701388887</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="D3" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="E3" t="s">
+        <v>514</v>
+      </c>
+      <c r="G3" t="s">
+        <v>514</v>
+      </c>
+      <c r="H3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="D4" s="76" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C7" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C8" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C9" s="18" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C10" s="41" t="s">
+        <v>515</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>516</v>
+      </c>
+      <c r="F10" s="75" t="s">
+        <v>340</v>
+      </c>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C11" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C12" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>340</v>
+      </c>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C13" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>346</v>
+      </c>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F10:M10"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="D4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G1" t="s">
+        <v>571</v>
+      </c>
+      <c r="H1" t="s">
+        <v>572</v>
+      </c>
+      <c r="I1" t="s">
+        <v>573</v>
+      </c>
+      <c r="J1" t="s">
+        <v>574</v>
+      </c>
+      <c r="K1" t="s">
+        <v>575</v>
+      </c>
+      <c r="L1" t="s">
+        <v>576</v>
+      </c>
+      <c r="M1" t="s">
+        <v>577</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H2" t="s">
+        <v>578</v>
+      </c>
+      <c r="I2" t="s">
+        <v>578</v>
+      </c>
+      <c r="J2" t="s">
+        <v>578</v>
+      </c>
+      <c r="K2" t="s">
+        <v>578</v>
+      </c>
+      <c r="L2" t="s">
+        <v>578</v>
+      </c>
+      <c r="M2" t="s">
+        <v>578</v>
+      </c>
+      <c r="N2" s="14">
+        <v>44965.416701388887</v>
+      </c>
+      <c r="O2" s="14">
+        <v>44965.416701388887</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F3" t="s">
+        <v>579</v>
+      </c>
+      <c r="G3" t="s">
+        <v>579</v>
+      </c>
+      <c r="H3" t="s">
+        <v>579</v>
+      </c>
+      <c r="I3" t="s">
+        <v>579</v>
+      </c>
+      <c r="J3" t="s">
+        <v>579</v>
+      </c>
+      <c r="K3" t="s">
+        <v>579</v>
+      </c>
+      <c r="L3" t="s">
+        <v>579</v>
+      </c>
+      <c r="M3" t="s">
+        <v>579</v>
+      </c>
+      <c r="N3" s="14">
+        <v>44965.416701388887</v>
+      </c>
+      <c r="O3" s="14">
+        <v>44965.416701388887</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="K5" s="16"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12" s="15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13" s="18" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14" s="18" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15" s="18" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16" s="16" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="16" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="16" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" s="16" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" s="16" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" s="16" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" s="16" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" s="16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14">
     <tabColor rgb="FFFF0000"/>
@@ -8193,25 +9343,25 @@
         <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>366</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>319</v>
@@ -8235,21 +9385,21 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>330</v>
@@ -8272,7 +9422,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -8280,7 +9430,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
@@ -8356,7 +9506,7 @@
     </row>
     <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B15" s="43" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>356</v>
@@ -8384,7 +9534,7 @@
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.45">
       <c r="D21" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -8440,489 +9590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:N13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>337</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>341</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>342</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="K2" s="14">
-        <v>44965.416701388887</v>
-      </c>
-      <c r="L2" s="14">
-        <v>44965.416701388887</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="N2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="D3" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="E3" t="s">
-        <v>516</v>
-      </c>
-      <c r="G3" t="s">
-        <v>516</v>
-      </c>
-      <c r="H3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="D4" s="55" t="s">
-        <v>343</v>
-      </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C7" s="15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C8" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="D8" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C9" s="18" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C10" s="41" t="s">
-        <v>517</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>518</v>
-      </c>
-      <c r="F10" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C11" s="18" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C12" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="C13" s="41" t="s">
-        <v>336</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F10:M10"/>
-    <mergeCell ref="F12:M12"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="D4:G4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.46484375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.86328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D1" t="s">
-        <v>571</v>
-      </c>
-      <c r="E1" t="s">
-        <v>572</v>
-      </c>
-      <c r="F1" t="s">
-        <v>573</v>
-      </c>
-      <c r="G1" t="s">
-        <v>574</v>
-      </c>
-      <c r="H1" t="s">
-        <v>575</v>
-      </c>
-      <c r="I1" t="s">
-        <v>576</v>
-      </c>
-      <c r="J1" t="s">
-        <v>577</v>
-      </c>
-      <c r="K1" t="s">
-        <v>578</v>
-      </c>
-      <c r="L1" t="s">
-        <v>579</v>
-      </c>
-      <c r="M1" t="s">
-        <v>580</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>581</v>
-      </c>
-      <c r="B2" t="s">
-        <v>581</v>
-      </c>
-      <c r="C2" t="s">
-        <v>581</v>
-      </c>
-      <c r="D2" t="s">
-        <v>581</v>
-      </c>
-      <c r="E2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F2" t="s">
-        <v>581</v>
-      </c>
-      <c r="G2" t="s">
-        <v>581</v>
-      </c>
-      <c r="H2" t="s">
-        <v>581</v>
-      </c>
-      <c r="I2" t="s">
-        <v>581</v>
-      </c>
-      <c r="J2" t="s">
-        <v>581</v>
-      </c>
-      <c r="K2" t="s">
-        <v>581</v>
-      </c>
-      <c r="L2" t="s">
-        <v>581</v>
-      </c>
-      <c r="M2" t="s">
-        <v>581</v>
-      </c>
-      <c r="N2" s="14">
-        <v>44965.416701388887</v>
-      </c>
-      <c r="O2" s="14">
-        <v>44965.416701388887</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>582</v>
-      </c>
-      <c r="B3" t="s">
-        <v>582</v>
-      </c>
-      <c r="C3" t="s">
-        <v>582</v>
-      </c>
-      <c r="D3" t="s">
-        <v>582</v>
-      </c>
-      <c r="E3" t="s">
-        <v>582</v>
-      </c>
-      <c r="F3" t="s">
-        <v>582</v>
-      </c>
-      <c r="G3" t="s">
-        <v>582</v>
-      </c>
-      <c r="H3" t="s">
-        <v>582</v>
-      </c>
-      <c r="I3" t="s">
-        <v>582</v>
-      </c>
-      <c r="J3" t="s">
-        <v>582</v>
-      </c>
-      <c r="K3" t="s">
-        <v>582</v>
-      </c>
-      <c r="L3" t="s">
-        <v>582</v>
-      </c>
-      <c r="M3" t="s">
-        <v>582</v>
-      </c>
-      <c r="N3" s="14">
-        <v>44965.416701388887</v>
-      </c>
-      <c r="O3" s="14">
-        <v>44965.416701388887</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="K5" s="16"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" s="15" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13" s="18" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A15" s="18" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="16" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="16" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="16" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="16" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" s="16" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" s="16" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" s="16" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" s="16" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" s="16" t="s">
-        <v>477</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15">
     <tabColor theme="9"/>
@@ -8943,10 +9611,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>375</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -8954,7 +9622,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C2" s="29">
         <v>1</v>
@@ -8965,7 +9633,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C3" s="29">
         <v>1</v>
@@ -8976,15 +9644,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9010,70 +9678,70 @@
         <v>257</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>439</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>441</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="G1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>443</v>
-      </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="K1" s="27" t="s">
         <v>444</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="L1" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="K1" s="27" t="s">
-        <v>446</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>448</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>449</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>450</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>452</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>543</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>268</v>
@@ -9101,30 +9769,30 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>537</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="27" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>329</v>
@@ -9134,13 +9802,13 @@
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="V2" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>564</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>566</v>
       </c>
       <c r="X2" s="14">
         <v>44965.416701388887</v>
@@ -9157,121 +9825,121 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="U3" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="V3" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>564</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G8" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G9" s="18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G10" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G11" s="33" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G12" s="33" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G13" s="33" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G14" s="18" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G15" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="I15" s="56" t="s">
-        <v>445</v>
+        <v>426</v>
+      </c>
+      <c r="I15" s="63" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G16" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="I16" s="56"/>
+        <v>427</v>
+      </c>
+      <c r="I16" s="63"/>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G17" s="15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G18" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G19" s="18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G20" s="18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G21" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="I21" s="57" t="s">
-        <v>454</v>
-      </c>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
+        <v>432</v>
+      </c>
+      <c r="I21" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
     </row>
     <row r="22" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G22" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
+        <v>433</v>
+      </c>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
     </row>
     <row r="23" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G23" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G24" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G25" s="18"/>
       <c r="H25" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="7:11" x14ac:dyDescent="0.45">
       <c r="G26" s="34" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -9283,15 +9951,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9315,43 +9983,43 @@
         <v>257</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="E1" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>553</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>268</v>
@@ -9392,13 +10060,13 @@
         <v>330</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>556</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -9419,12 +10087,12 @@
     <row r="4" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="50" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="196.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="51" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9432,32 +10100,32 @@
     </row>
     <row r="8" spans="1:18" ht="125.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="52" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C9" s="44" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C10" s="44" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C11" s="44" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C12" s="44" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C13" s="47" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.45">
@@ -9465,22 +10133,22 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C15" s="46" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="71.25" x14ac:dyDescent="0.45">
       <c r="C16" s="45" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C17" s="45" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C18" s="46" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -9488,7 +10156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
@@ -9496,7 +10164,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9510,143 +10178,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="53" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1" s="53" t="s">
         <v>559</v>
       </c>
-      <c r="C1" s="58" t="s">
-        <v>560</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>561</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>482</v>
+      <c r="E1" s="53" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>564</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>565</v>
-      </c>
       <c r="D3" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>564</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G11" s="15" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="65" t="s">
+        <v>580</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="G12" s="20" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+      <c r="G13" s="18" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="68" t="s">
-        <v>568</v>
-      </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
-      <c r="G12" s="20" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="G14" s="18" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="G13" s="18" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70"/>
+      <c r="G15" s="18" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="G14" s="18" t="s">
+    <row r="16" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="G16" s="18" t="s">
         <v>458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
-      <c r="G15" s="18" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="74"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="76"/>
-      <c r="G16" s="18" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G17" s="33" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="G18" s="33" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="G19" s="33" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
-      <c r="G18" s="33" t="s">
+    <row r="20" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
+      <c r="G20" s="33" t="s">
         <v>462</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="62"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="G19" s="33" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="G20" s="33" t="s">
-        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -9657,7 +10325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
@@ -9678,10 +10346,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -9689,7 +10357,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C2" s="29">
         <v>1</v>
@@ -9700,7 +10368,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C3" s="29">
         <v>1</v>
@@ -9711,7 +10379,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C4" s="29">
         <v>1</v>
@@ -9722,7 +10390,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C5" s="29">
         <v>1</v>
@@ -9733,7 +10401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -9753,18 +10421,18 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -9772,10 +10440,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -9783,10 +10451,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -9794,10 +10462,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -9805,10 +10473,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -9816,10 +10484,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -9827,10 +10495,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -9838,10 +10506,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -9849,10 +10517,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -9860,10 +10528,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -9871,10 +10539,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -9882,10 +10550,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -9893,10 +10561,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -9904,10 +10572,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -9915,10 +10583,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -9926,10 +10594,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -9938,260 +10606,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2">
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:S18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="32.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.73046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.59765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="S1" s="24" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F2" s="5">
-        <v>44564</v>
-      </c>
-      <c r="G2" s="5">
-        <v>46111</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="D3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H3" t="s">
-        <v>239</v>
-      </c>
-      <c r="I3" t="s">
-        <v>240</v>
-      </c>
-      <c r="J3" t="s">
-        <v>242</v>
-      </c>
-      <c r="L3" t="s">
-        <v>244</v>
-      </c>
-      <c r="S3" s="25" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="S4" s="25" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="53" t="s">
-        <v>390</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A15" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>377</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B6:F6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/web/database_design.xlsx
+++ b/web/database_design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="6240" tabRatio="957" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="6240" tabRatio="957" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="key input fields" sheetId="55" r:id="rId1"/>
@@ -17,27 +17,28 @@
     <sheet name="solicitation_infor" sheetId="41" r:id="rId3"/>
     <sheet name="opts_submissionmeans" sheetId="42" r:id="rId4"/>
     <sheet name="applicants_details" sheetId="49" r:id="rId5"/>
-    <sheet name="evaluation_details" sheetId="54" r:id="rId6"/>
-    <sheet name="pre_award_assessment" sheetId="50" r:id="rId7"/>
-    <sheet name="opts_recommendation" sheetId="52" r:id="rId8"/>
-    <sheet name="opts_modification_number" sheetId="53" r:id="rId9"/>
-    <sheet name="subrecipient_infor" sheetId="6" r:id="rId10"/>
-    <sheet name="opts_subrecipientstatus" sheetId="44" r:id="rId11"/>
-    <sheet name="opts_subaward_type" sheetId="11" r:id="rId12"/>
-    <sheet name="opts_applicable_indirect_cost" sheetId="10" r:id="rId13"/>
-    <sheet name="opts_entitytype" sheetId="9" r:id="rId14"/>
-    <sheet name="opts_reportingfrequency" sheetId="8" r:id="rId15"/>
-    <sheet name="opts_currency" sheetId="7" r:id="rId16"/>
-    <sheet name="subaward_lop_budget" sheetId="12" r:id="rId17"/>
-    <sheet name="obligation_infor" sheetId="17" r:id="rId18"/>
-    <sheet name="modification_details" sheetId="22" r:id="rId19"/>
-    <sheet name="financial_reports" sheetId="30" r:id="rId20"/>
-    <sheet name="cost_share_infor" sheetId="35" r:id="rId21"/>
-    <sheet name="sub_award_close_out" sheetId="51" r:id="rId22"/>
+    <sheet name="opts_organizationtypes" sheetId="56" r:id="rId6"/>
+    <sheet name="evaluation_details" sheetId="54" r:id="rId7"/>
+    <sheet name="pre_award_assessment" sheetId="50" r:id="rId8"/>
+    <sheet name="opts_recommendation" sheetId="52" r:id="rId9"/>
+    <sheet name="opts_modification_number" sheetId="53" r:id="rId10"/>
+    <sheet name="subrecipient_infor" sheetId="6" r:id="rId11"/>
+    <sheet name="opts_subrecipientstatus" sheetId="44" r:id="rId12"/>
+    <sheet name="opts_subaward_type" sheetId="11" r:id="rId13"/>
+    <sheet name="opts_applicable_indirect_cost" sheetId="10" r:id="rId14"/>
+    <sheet name="opts_entitytype" sheetId="9" r:id="rId15"/>
+    <sheet name="opts_reportingfrequency" sheetId="8" r:id="rId16"/>
+    <sheet name="opts_currency" sheetId="7" r:id="rId17"/>
+    <sheet name="subaward_lop_budget" sheetId="12" r:id="rId18"/>
+    <sheet name="obligation_infor" sheetId="17" r:id="rId19"/>
+    <sheet name="modification_details" sheetId="22" r:id="rId20"/>
+    <sheet name="financial_reports" sheetId="30" r:id="rId21"/>
+    <sheet name="cost_share_infor" sheetId="35" r:id="rId22"/>
+    <sheet name="sub_award_close_out" sheetId="51" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk100664909" localSheetId="1">grants_infor!$F$7</definedName>
-    <definedName name="OLE_LINK1" localSheetId="9">subrecipient_infor!$A$10</definedName>
+    <definedName name="OLE_LINK1" localSheetId="10">subrecipient_infor!$A$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="647">
   <si>
     <t>1.0 Grant Information</t>
   </si>
@@ -4894,13 +4895,7 @@
     <t>has_registration_certificate</t>
   </si>
   <si>
-    <t>pin_certificate_attachment_id</t>
-  </si>
-  <si>
     <t>tx_compliance_attachment_id</t>
-  </si>
-  <si>
-    <t>other_requirement_attachment</t>
   </si>
   <si>
     <t>applicate_id</t>
@@ -5104,6 +5099,138 @@
   </si>
   <si>
     <t>Deloitte &amp; Touche Limited</t>
+  </si>
+  <si>
+    <t>Nofo Number</t>
+  </si>
+  <si>
+    <t>Performance Start Date</t>
+  </si>
+  <si>
+    <t>Performance End Date</t>
+  </si>
+  <si>
+    <t>Award Mechanism</t>
+  </si>
+  <si>
+    <t>Date of Issuance</t>
+  </si>
+  <si>
+    <t>Submission By Date</t>
+  </si>
+  <si>
+    <t>Means of Submission</t>
+  </si>
+  <si>
+    <t>Upload Documents</t>
+  </si>
+  <si>
+    <t>Documents Name(s)</t>
+  </si>
+  <si>
+    <t>Grant Name</t>
+  </si>
+  <si>
+    <t>input Field Name</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>upload</t>
+  </si>
+  <si>
+    <t>Organization Name</t>
+  </si>
+  <si>
+    <t>Type of Organization</t>
+  </si>
+  <si>
+    <t>Postal Address</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Executive Name</t>
+  </si>
+  <si>
+    <t>Executive Title</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Has Pin Certificate</t>
+  </si>
+  <si>
+    <t>Pin Number</t>
+  </si>
+  <si>
+    <t>Upload Tax Compliant Certificate</t>
+  </si>
+  <si>
+    <t>Certificate Name</t>
+  </si>
+  <si>
+    <t>Upload Universal entity Certificate</t>
+  </si>
+  <si>
+    <t>Solicitaion id</t>
+  </si>
+  <si>
+    <t>Has Registration Certificate?</t>
+  </si>
+  <si>
+    <t>universal_entity_certificate_file</t>
+  </si>
+  <si>
+    <t>Solicitation</t>
+  </si>
+  <si>
+    <t>Html</t>
+  </si>
+  <si>
+    <t>Has Pin Certificate?</t>
+  </si>
+  <si>
+    <t>Is Tax Compliant?</t>
+  </si>
+  <si>
+    <t>Non Profit</t>
+  </si>
+  <si>
+    <t>For Profit</t>
+  </si>
+  <si>
+    <t>NGO</t>
+  </si>
+  <si>
+    <t>Religious</t>
+  </si>
+  <si>
+    <t>organizationtypes</t>
+  </si>
+  <si>
+    <t>Universal Entity Number</t>
+  </si>
+  <si>
+    <t>pin_certificate_attachment</t>
+  </si>
+  <si>
+    <t>other_requirement_attachment_file</t>
+  </si>
+  <si>
+    <t>Upload Other Required Attachments</t>
+  </si>
+  <si>
+    <t>Upload Pin Certificate Attachment</t>
+  </si>
+  <si>
+    <t>Is the Applicant Eligible?</t>
   </si>
 </sst>
 </file>
@@ -5113,7 +5240,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy:mm:dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5164,8 +5291,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5196,8 +5331,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -5380,11 +5521,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
@@ -5508,6 +5671,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5550,23 +5737,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5851,46 +6034,46 @@
   <dimension ref="B6:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.9296875" style="81" customWidth="1"/>
-    <col min="3" max="3" width="107.06640625" customWidth="1"/>
-    <col min="4" max="4" width="43.1328125" customWidth="1"/>
+    <col min="2" max="2" width="35" style="67" customWidth="1"/>
+    <col min="3" max="3" width="107" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B6" s="82" t="s">
+    <row r="6" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="68" t="s">
+        <v>594</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B8" s="68" t="s">
+        <v>595</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B11" s="68" t="s">
         <v>596</v>
       </c>
-      <c r="C6" s="80" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B8" s="82" t="s">
+      <c r="C11" s="66" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B14" s="68" t="s">
         <v>597</v>
       </c>
-      <c r="C8" s="80" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="B11" s="82" t="s">
-        <v>598</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B14" s="82" t="s">
+      <c r="C14" s="66" t="s">
         <v>599</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -5899,6 +6082,213 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <tabColor theme="4"/>
@@ -5907,27 +6297,27 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.1328125" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -5986,7 +6376,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -6045,7 +6435,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>238</v>
       </c>
@@ -6065,31 +6455,31 @@
         <v>386</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S4" s="25" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="74" t="s">
+    <row r="6" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="86" t="s">
         <v>388</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>366</v>
       </c>
@@ -6097,48 +6487,48 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -6154,7 +6544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16">
     <tabColor theme="4"/>
@@ -6165,13 +6555,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -6182,7 +6572,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>385</v>
       </c>
@@ -6193,7 +6583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>413</v>
       </c>
@@ -6204,7 +6594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>387</v>
       </c>
@@ -6220,7 +6610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <tabColor theme="4"/>
@@ -6231,13 +6621,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -6248,7 +6638,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>233</v>
       </c>
@@ -6259,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>234</v>
       </c>
@@ -6270,7 +6660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>235</v>
       </c>
@@ -6281,7 +6671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>214</v>
       </c>
@@ -6297,7 +6687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <tabColor theme="4"/>
@@ -6308,13 +6698,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -6325,7 +6715,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>219</v>
       </c>
@@ -6336,7 +6726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>220</v>
       </c>
@@ -6347,7 +6737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>221</v>
       </c>
@@ -6358,7 +6748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>225</v>
       </c>
@@ -6368,7 +6758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <tabColor theme="4"/>
@@ -6379,12 +6769,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -6395,7 +6785,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>217</v>
       </c>
@@ -6406,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>215</v>
       </c>
@@ -6417,7 +6807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>211</v>
       </c>
@@ -6428,7 +6818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>216</v>
       </c>
@@ -6439,7 +6829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>212</v>
       </c>
@@ -6450,7 +6840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>213</v>
       </c>
@@ -6461,7 +6851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>214</v>
       </c>
@@ -6477,7 +6867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6">
     <tabColor theme="4"/>
@@ -6488,12 +6878,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -6504,7 +6894,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>200</v>
       </c>
@@ -6515,7 +6905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>201</v>
       </c>
@@ -6526,7 +6916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>202</v>
       </c>
@@ -6537,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>203</v>
       </c>
@@ -6553,7 +6943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7">
     <tabColor theme="4"/>
@@ -6564,13 +6954,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>125</v>
       </c>
@@ -6581,7 +6971,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
@@ -6592,7 +6982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>104</v>
       </c>
@@ -6603,7 +6993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
@@ -6614,7 +7004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>46</v>
       </c>
@@ -6625,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
@@ -6636,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
@@ -6647,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>56</v>
       </c>
@@ -6658,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>58</v>
       </c>
@@ -6669,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>60</v>
       </c>
@@ -6680,7 +7070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
@@ -6691,7 +7081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>64</v>
       </c>
@@ -6702,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>66</v>
       </c>
@@ -6713,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>68</v>
       </c>
@@ -6724,7 +7114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -6735,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>72</v>
       </c>
@@ -6746,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>74</v>
       </c>
@@ -6757,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>76</v>
       </c>
@@ -6768,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>78</v>
       </c>
@@ -6779,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>80</v>
       </c>
@@ -6790,7 +7180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>82</v>
       </c>
@@ -6801,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>84</v>
       </c>
@@ -6812,7 +7202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>86</v>
       </c>
@@ -6823,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>88</v>
       </c>
@@ -6834,7 +7224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>90</v>
       </c>
@@ -6845,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>92</v>
       </c>
@@ -6856,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>94</v>
       </c>
@@ -6867,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>96</v>
       </c>
@@ -6878,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>98</v>
       </c>
@@ -6889,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>100</v>
       </c>
@@ -6900,7 +7290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>102</v>
       </c>
@@ -6911,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>104</v>
       </c>
@@ -6922,7 +7312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>106</v>
       </c>
@@ -6933,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>108</v>
       </c>
@@ -6944,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>110</v>
       </c>
@@ -6955,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>112</v>
       </c>
@@ -6966,7 +7356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>114</v>
       </c>
@@ -6977,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>116</v>
       </c>
@@ -6988,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>118</v>
       </c>
@@ -6999,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>120</v>
       </c>
@@ -7010,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>122</v>
       </c>
@@ -7021,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>124</v>
       </c>
@@ -7032,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>127</v>
       </c>
@@ -7043,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>129</v>
       </c>
@@ -7054,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>131</v>
       </c>
@@ -7065,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>133</v>
       </c>
@@ -7076,7 +7466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>135</v>
       </c>
@@ -7087,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>137</v>
       </c>
@@ -7098,7 +7488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>139</v>
       </c>
@@ -7109,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>141</v>
       </c>
@@ -7120,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>143</v>
       </c>
@@ -7131,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>145</v>
       </c>
@@ -7142,7 +7532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>147</v>
       </c>
@@ -7153,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>149</v>
       </c>
@@ -7164,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>151</v>
       </c>
@@ -7175,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>153</v>
       </c>
@@ -7186,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>155</v>
       </c>
@@ -7197,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>157</v>
       </c>
@@ -7208,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>159</v>
       </c>
@@ -7219,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>161</v>
       </c>
@@ -7230,7 +7620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>163</v>
       </c>
@@ -7241,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>165</v>
       </c>
@@ -7252,7 +7642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>167</v>
       </c>
@@ -7263,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>169</v>
       </c>
@@ -7274,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>171</v>
       </c>
@@ -7285,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>173</v>
       </c>
@@ -7296,7 +7686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>175</v>
       </c>
@@ -7307,7 +7697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>177</v>
       </c>
@@ -7318,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>179</v>
       </c>
@@ -7329,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>181</v>
       </c>
@@ -7340,7 +7730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>183</v>
       </c>
@@ -7351,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>185</v>
       </c>
@@ -7362,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>187</v>
       </c>
@@ -7373,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>189</v>
       </c>
@@ -7384,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>191</v>
       </c>
@@ -7395,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>193</v>
       </c>
@@ -7406,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>195</v>
       </c>
@@ -7417,79 +7807,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102"/>
     </row>
   </sheetData>
@@ -7497,7 +7887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8">
     <tabColor theme="4"/>
@@ -7508,25 +7898,25 @@
       <selection activeCell="M2" sqref="M2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.73046875" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
@@ -7579,7 +7969,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -7632,57 +8022,57 @@
         <v>403</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D7" s="11" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D8" s="12" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D9" s="13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D10" s="13" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D11" s="13" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D12" s="13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D13" s="13" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D14" s="13" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D15" s="13" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D16" s="13" t="s">
         <v>256</v>
       </c>
@@ -7692,7 +8082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9">
     <tabColor theme="8"/>
@@ -7703,27 +8093,27 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1328125" customWidth="1"/>
-    <col min="8" max="8" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.86328125" customWidth="1"/>
-    <col min="17" max="17" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
@@ -7779,7 +8169,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -7829,62 +8219,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G7" s="15" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G8" s="12" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G9" s="16" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G10" s="17" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G11" s="17" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G12" s="17" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G13" s="17" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G14" s="17" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G15" s="17" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G16" s="17" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="17" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="16" t="s">
         <v>292</v>
       </c>
@@ -7894,7 +8284,415 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1">
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.7109375" customWidth="1"/>
+    <col min="6" max="6" width="67.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E2" s="4">
+        <v>84478</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5">
+        <v>44317</v>
+      </c>
+      <c r="H2" s="5">
+        <v>46142</v>
+      </c>
+      <c r="I2" s="5">
+        <v>46142</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E3" t="s">
+        <v>582</v>
+      </c>
+      <c r="F3" t="s">
+        <v>583</v>
+      </c>
+      <c r="G3" t="s">
+        <v>584</v>
+      </c>
+      <c r="H3" t="s">
+        <v>585</v>
+      </c>
+      <c r="I3" t="s">
+        <v>586</v>
+      </c>
+      <c r="J3" t="s">
+        <v>587</v>
+      </c>
+      <c r="K3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39" t="s">
+        <v>589</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E17" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A17&amp;"'&gt;&lt;b&gt;"&amp;C17&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='"&amp;A17&amp;"' name='"&amp;A17&amp;"'  placeholder='Enter "&amp;C17&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='donor_name'&gt;&lt;b&gt;Donor Name&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='donor_name' name='donor_name'  placeholder='Enter Donor Name'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E18" s="66" t="str">
+        <f t="shared" ref="E18:E25" si="0">"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A18&amp;"'&gt;&lt;b&gt;"&amp;C18&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='"&amp;A18&amp;"' name='"&amp;A18&amp;"'  placeholder='Enter "&amp;C18&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='donor_code'&gt;&lt;b&gt;Donar Code&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='donor_code' name='donor_code'  placeholder='Enter Donar Code'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E19" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='prime_recipient'&gt;&lt;b&gt;Prime Recipient&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='prime_recipient' name='prime_recipient'  placeholder='Enter Prime Recipient'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="64">
+        <v>84478</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E20" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='prime_award_number'&gt;&lt;b&gt;Prime Award Number&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='prime_award_number' name='prime_award_number'  placeholder='Enter Prime Award Number'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E21" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='country_of_implementation'&gt;&lt;b&gt;Country of Implementation&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='country_of_implementation' name='country_of_implementation'  placeholder='Enter Country of Implementation'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="65">
+        <v>44317</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E22" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='implementation_startdate'&gt;&lt;b&gt;Implementation Start Date&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='implementation_startdate' name='implementation_startdate'  placeholder='Enter Implementation Start Date'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="65">
+        <v>46142</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E23" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A23&amp;"'&gt;&lt;b&gt;"&amp;C23&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control tarehe_kesho' id='"&amp;A23&amp;"' name='"&amp;A23&amp;"'  placeholder='Enter "&amp;C23&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='implementation_enddate'&gt;&lt;b&gt;Implemntation End Date&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control tarehe_kesho' id='implementation_enddate' name='implementation_enddate'  placeholder='Enter Implemntation End Date'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="65">
+        <v>46142</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E24" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='obligation_enddate'&gt;&lt;b&gt;Obligation End Date&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='obligation_enddate' name='obligation_enddate'  placeholder='Enter Obligation End Date'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="64"/>
+      <c r="C25" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E25" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='costshare_obligation'&gt;&lt;b&gt;Cost Share Obligation&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='costshare_obligation' name='costshare_obligation'  placeholder='Enter Cost Share Obligation'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="64"/>
+      <c r="C26" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A26&amp;"'&gt;&lt;b&gt;"&amp;C26&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='"&amp;A26&amp;"' name='"&amp;A26&amp;"'  placeholder='Enter "&amp;C26&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='grant_amount'&gt;&lt;b&gt;Grant Amount&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='grant_amount' name='grant_amount'  placeholder='Enter Grant Amount'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10">
     <tabColor theme="4"/>
@@ -7905,46 +8703,46 @@
       <selection activeCell="C23" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="76" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="61" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.73046875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.73046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.73046875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="32.73046875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.86328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="33.265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="139.59765625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="139.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="30" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.73046875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.73046875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="35" width="18" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>257</v>
       </c>
@@ -8009,7 +8807,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>415</v>
       </c>
@@ -8095,25 +8893,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C3" s="28"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>408</v>
       </c>
@@ -8121,19 +8919,19 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="G8" s="18" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="G9" s="18" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G10" s="18" t="s">
         <v>299</v>
       </c>
@@ -8141,7 +8939,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>400</v>
       </c>
@@ -8149,7 +8947,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>410</v>
       </c>
@@ -8160,22 +8958,22 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G13" s="23" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G14" s="23" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G15" s="23" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>308</v>
       </c>
@@ -8183,17 +8981,17 @@
         <v>395</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="23" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="23" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" s="23" t="s">
         <v>398</v>
       </c>
@@ -8204,412 +9002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:K26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.73046875" customWidth="1"/>
-    <col min="6" max="6" width="67.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.73046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.59765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="E2" s="4">
-        <v>84478</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5">
-        <v>44317</v>
-      </c>
-      <c r="H2" s="5">
-        <v>46142</v>
-      </c>
-      <c r="I2" s="5">
-        <v>46142</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>581</v>
-      </c>
-      <c r="C3" t="s">
-        <v>582</v>
-      </c>
-      <c r="D3" t="s">
-        <v>583</v>
-      </c>
-      <c r="E3" t="s">
-        <v>584</v>
-      </c>
-      <c r="F3" t="s">
-        <v>585</v>
-      </c>
-      <c r="G3" t="s">
-        <v>586</v>
-      </c>
-      <c r="H3" t="s">
-        <v>587</v>
-      </c>
-      <c r="I3" t="s">
-        <v>588</v>
-      </c>
-      <c r="J3" t="s">
-        <v>589</v>
-      </c>
-      <c r="K3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F6" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F15" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39" t="s">
-        <v>591</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="59.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="78" t="s">
-        <v>414</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="E17" s="80" t="str">
-        <f>"&lt;div class='form-group col-md-4'&gt;
-&lt;label for='"&amp;A17&amp;"'&gt;&lt;b&gt;"&amp;C17&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
-&lt;input type='input' class='form-control' id='"&amp;A17&amp;"' name='"&amp;A17&amp;"'  placeholder='Enter "&amp;C17&amp;"'/&gt;
-&lt;/div&gt;"</f>
-        <v>&lt;div class='form-group col-md-4'&gt;
-&lt;label for='donor_name'&gt;&lt;b&gt;Donor Name&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
-&lt;input type='input' class='form-control' id='donor_name' name='donor_name'  placeholder='Enter Donor Name'/&gt;
-&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="61.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="E18" s="80" t="str">
-        <f t="shared" ref="E18:E25" si="0">"&lt;div class='form-group col-md-4'&gt;
-&lt;label for='"&amp;A18&amp;"'&gt;&lt;b&gt;"&amp;C18&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
-&lt;input type='input' class='form-control' id='"&amp;A18&amp;"' name='"&amp;A18&amp;"'  placeholder='Enter "&amp;C18&amp;"'/&gt;
-&lt;/div&gt;"</f>
-        <v>&lt;div class='form-group col-md-4'&gt;
-&lt;label for='donor_code'&gt;&lt;b&gt;Donar Code&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
-&lt;input type='input' class='form-control' id='donor_code' name='donor_code'  placeholder='Enter Donar Code'/&gt;
-&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A19" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="E19" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;div class='form-group col-md-4'&gt;
-&lt;label for='prime_recipient'&gt;&lt;b&gt;Prime Recipient&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
-&lt;input type='input' class='form-control' id='prime_recipient' name='prime_recipient'  placeholder='Enter Prime Recipient'/&gt;
-&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A20" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="78">
-        <v>84478</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="E20" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;div class='form-group col-md-4'&gt;
-&lt;label for='prime_award_number'&gt;&lt;b&gt;Prime Award Number&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
-&lt;input type='input' class='form-control' id='prime_award_number' name='prime_award_number'  placeholder='Enter Prime Award Number'/&gt;
-&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A21" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="E21" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;div class='form-group col-md-4'&gt;
-&lt;label for='country_of_implementation'&gt;&lt;b&gt;Country of Implementation&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
-&lt;input type='input' class='form-control' id='country_of_implementation' name='country_of_implementation'  placeholder='Enter Country of Implementation'/&gt;
-&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A22" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="79">
-        <v>44317</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="E22" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;div class='form-group col-md-4'&gt;
-&lt;label for='implementation_startdate'&gt;&lt;b&gt;Implementation Start Date&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
-&lt;input type='input' class='form-control' id='implementation_startdate' name='implementation_startdate'  placeholder='Enter Implementation Start Date'/&gt;
-&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A23" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="79">
-        <v>46142</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="E23" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;div class='form-group col-md-4'&gt;
-&lt;label for='implementation_enddate'&gt;&lt;b&gt;Implemntation End Date&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
-&lt;input type='input' class='form-control' id='implementation_enddate' name='implementation_enddate'  placeholder='Enter Implemntation End Date'/&gt;
-&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A24" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="79">
-        <v>46142</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="E24" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;div class='form-group col-md-4'&gt;
-&lt;label for='obligation_enddate'&gt;&lt;b&gt;Obligation End Date&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
-&lt;input type='input' class='form-control' id='obligation_enddate' name='obligation_enddate'  placeholder='Enter Obligation End Date'/&gt;
-&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A25" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="78"/>
-      <c r="C25" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="E25" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;div class='form-group col-md-4'&gt;
-&lt;label for='costshare_obligation'&gt;&lt;b&gt;Cost Share Obligation&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
-&lt;input type='input' class='form-control' id='costshare_obligation' name='costshare_obligation'  placeholder='Enter Cost Share Obligation'/&gt;
-&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A26" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="80" t="str">
-        <f>"&lt;div class='form-group col-md-4'&gt;
-&lt;label for='"&amp;A26&amp;"'&gt;&lt;b&gt;"&amp;C26&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
-&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='"&amp;A26&amp;"' name='"&amp;A26&amp;"'  placeholder='Enter "&amp;C26&amp;"'/&gt;
-&lt;/div&gt;"</f>
-        <v>&lt;div class='form-group col-md-4'&gt;
-&lt;label for='grant_amount'&gt;&lt;b&gt;Grant Amount&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
-&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='grant_amount' name='grant_amount'  placeholder='Enter Grant Amount'/&gt;
-&lt;/div&gt;</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12">
     <tabColor rgb="FFFF0000"/>
@@ -8620,27 +9013,27 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
@@ -8702,7 +9095,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -8762,62 +9155,62 @@
         <v>7873468837</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E8" s="15" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E9" s="15" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E10" s="15" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E11" s="15" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E12" s="13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E13" s="13" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E14" s="13" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E15" s="13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E16" s="13" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17" s="13" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18" s="13" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E19" s="19" t="s">
         <v>316</v>
       </c>
@@ -8827,7 +9220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:N13"/>
@@ -8836,22 +9229,22 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
@@ -8895,7 +9288,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -8939,7 +9332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="D3" s="26" t="s">
         <v>513</v>
       </c>
@@ -8953,25 +9346,25 @@
         <v>514</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="D4" s="76" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D4" s="88" t="s">
         <v>343</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="15" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" s="41" t="s">
         <v>332</v>
       </c>
@@ -8979,63 +9372,63 @@
         <v>512</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" s="18" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="41" t="s">
         <v>515</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>516</v>
       </c>
-      <c r="F10" s="75" t="s">
+      <c r="F10" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="18" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C12" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="F12" s="75" t="s">
+      <c r="F12" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="87" t="s">
         <v>346</v>
       </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9049,7 +9442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
@@ -9057,62 +9450,62 @@
       <selection sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.46484375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>257</v>
       </c>
       <c r="B1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D1" t="s">
         <v>566</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>567</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>568</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>569</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>570</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>571</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>572</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>573</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>574</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>575</v>
-      </c>
-      <c r="L1" t="s">
-        <v>576</v>
-      </c>
-      <c r="M1" t="s">
-        <v>577</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>268</v>
@@ -9127,45 +9520,45 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="N2" s="14">
         <v>44965.416701388887</v>
@@ -9180,45 +9573,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N3" s="14">
         <v>44965.416701388887</v>
@@ -9233,73 +9626,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K5" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>475</v>
       </c>
@@ -9312,30 +9705,31 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14">
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="27.1328125" customWidth="1"/>
-    <col min="5" max="5" width="22.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="62.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
@@ -9382,7 +9776,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>361</v>
@@ -9417,183 +9811,450 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58" t="s">
+        <v>612</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>603</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>604</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>605</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>606</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>607</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>608</v>
+      </c>
+      <c r="I3" s="71" t="s">
+        <v>609</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>611</v>
+      </c>
+      <c r="K3" s="71" t="s">
+        <v>610</v>
+      </c>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D7" s="15" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D8" s="20" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D11" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D12" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D13" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D13" s="18" t="s">
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D14" s="18" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="42"/>
-      <c r="D14" s="18" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="42"/>
+      <c r="D15" s="18" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B15" s="43" t="s">
+    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="D16" s="18" t="s">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="18" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="D17" s="18" t="s">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="18" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="D18" s="18" t="s">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="18" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="D19" s="18" t="s">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="18" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="D21" s="7" t="s">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C23" s="2" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C24" s="1" t="s">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C25" s="1" t="s">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C26" s="1" t="s">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C27" s="1" t="s">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C28" s="1" t="s">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C29" s="1" t="s">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C30" s="1" t="s">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C31" s="1" t="s">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39" t="s">
+        <v>613</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D35" s="72" t="s">
+        <v>592</v>
+      </c>
+      <c r="E35" s="66" t="str">
+        <f t="shared" ref="E35" si="0">"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A35&amp;"'&gt;&lt;b&gt;"&amp;C35&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='"&amp;A35&amp;"' name='"&amp;A35&amp;"'  placeholder='Enter "&amp;C35&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='grant_id'&gt;&lt;b&gt;Grant Name&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='grant_id' name='grant_id'  placeholder='Enter Grant Name'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D36" t="s">
+        <v>591</v>
+      </c>
+      <c r="E36" s="66" t="str">
+        <f t="shared" ref="E36" si="1">"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A36&amp;"'&gt;&lt;b&gt;"&amp;C36&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='"&amp;A36&amp;"' name='"&amp;A36&amp;"'  placeholder='Enter "&amp;C36&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='nofo_number'&gt;&lt;b&gt;Nofo Number&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='nofo_number' name='nofo_number'  placeholder='Enter Nofo Number'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D37" t="s">
+        <v>614</v>
+      </c>
+      <c r="E37" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A37&amp;"'&gt;&lt;b&gt;"&amp;C37&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control tarehe' id='"&amp;A37&amp;"' name='"&amp;A37&amp;"'  placeholder='Enter "&amp;C37&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='performance_start_date'&gt;&lt;b&gt;Performance Start Date&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control tarehe' id='performance_start_date' name='performance_start_date'  placeholder='Enter Performance Start Date'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D38" t="s">
+        <v>614</v>
+      </c>
+      <c r="E38" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A38&amp;"'&gt;&lt;b&gt;"&amp;C38&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control tarehe_kesho' id='"&amp;A38&amp;"' name='"&amp;A38&amp;"'  placeholder='Enter "&amp;C38&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='performance_end_date'&gt;&lt;b&gt;Performance End Date&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control tarehe_kesho' id='performance_end_date' name='performance_end_date'  placeholder='Enter Performance End Date'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D39" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="27" t="s">
+        <v>607</v>
+      </c>
+      <c r="D40" t="s">
+        <v>614</v>
+      </c>
+      <c r="E40" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A40&amp;"'&gt;&lt;b&gt;"&amp;C40&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control tarehe' id='"&amp;A40&amp;"' name='"&amp;A40&amp;"'  placeholder='Enter "&amp;C40&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='date_of_issuance'&gt;&lt;b&gt;Date of Issuance&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control tarehe' id='date_of_issuance' name='date_of_issuance'  placeholder='Enter Date of Issuance'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="27" t="s">
+        <v>608</v>
+      </c>
+      <c r="D41" t="s">
+        <v>614</v>
+      </c>
+      <c r="E41" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A41&amp;"'&gt;&lt;b&gt;"&amp;C41&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control tarehe_kesho' id='"&amp;A41&amp;"' name='"&amp;A41&amp;"'  placeholder='Enter "&amp;C41&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='submission_by_date'&gt;&lt;b&gt;Submission By Date&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control tarehe_kesho' id='submission_by_date' name='submission_by_date'  placeholder='Enter Submission By Date'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>609</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="E42" s="66" t="str">
+        <f t="shared" ref="E42:E43" si="2">"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A42&amp;"'&gt;&lt;b&gt;"&amp;C42&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='"&amp;A42&amp;"' name='"&amp;A42&amp;"'  placeholder='Enter "&amp;C42&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='means_of_submission'&gt;&lt;b&gt;Means of Submission&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='means_of_submission' name='means_of_submission'  placeholder='Enter Means of Submission'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>611</v>
+      </c>
+      <c r="D43" s="73" t="s">
+        <v>591</v>
+      </c>
+      <c r="E43" s="66" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='attachment_name'&gt;&lt;b&gt;Documents Name(s)&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='attachment_name' name='attachment_name'  placeholder='Enter Documents Name(s)'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>610</v>
+      </c>
+      <c r="D44" s="73" t="s">
+        <v>615</v>
+      </c>
+      <c r="E44" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A44&amp;"'&gt;&lt;b&gt;"&amp;C44&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='file' class='form-control custom-file-input' id='"&amp;A44&amp;"' name='"&amp;A44&amp;"'  placeholder='Enter "&amp;C44&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='attachment_location'&gt;&lt;b&gt;Upload Documents&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='file' class='form-control custom-file-input' id='attachment_location' name='attachment_location'  placeholder='Enter Upload Documents'/&gt;
+&lt;/div&gt;</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15">
-    <tabColor theme="9"/>
+    <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -9601,12 +10262,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
@@ -9617,7 +10278,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -9628,7 +10289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -9649,47 +10310,56 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.86328125" customWidth="1"/>
-    <col min="8" max="8" width="22.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="28.1328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.86328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.28515625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.7109375" customWidth="1"/>
+    <col min="17" max="17" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="17.46484375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="74" t="s">
         <v>518</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="74" t="s">
         <v>438</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>439</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="91" t="s">
         <v>371</v>
       </c>
       <c r="G1" s="27" t="s">
@@ -9701,44 +10371,44 @@
       <c r="I1" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="74" t="s">
         <v>538</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="74" t="s">
         <v>444</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="74" t="s">
         <v>445</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="74" t="s">
         <v>447</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="89" t="s">
         <v>448</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="89" t="s">
+        <v>631</v>
+      </c>
+      <c r="R1" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>539</v>
-      </c>
       <c r="S1" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>541</v>
+        <v>642</v>
+      </c>
+      <c r="T1" s="93" t="s">
+        <v>643</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>480</v>
@@ -9756,7 +10426,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -9768,7 +10438,7 @@
         <v>2022</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="66" t="s">
         <v>533</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -9791,24 +10461,22 @@
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="V2" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>564</v>
       </c>
       <c r="X2" s="14">
         <v>44965.416701388887</v>
@@ -9823,123 +10491,648 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="U3" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>619</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G8" s="18" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G9" s="18" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B10" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39" t="s">
+        <v>613</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>590</v>
+      </c>
+      <c r="F10" s="92" t="s">
+        <v>633</v>
+      </c>
       <c r="G10" s="18" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" ht="120" x14ac:dyDescent="0.25">
+      <c r="B11" s="74" t="s">
+        <v>518</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="F11" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B11&amp;"'&gt;&lt;b&gt;"&amp;D11&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;B11&amp;"' name='"&amp;B11&amp;"'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='solicitation_id'&gt;&lt;b&gt;Solicitation&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='solicitation_id' name='solicitation_id'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
       <c r="G11" s="33" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" ht="105" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>591</v>
+      </c>
+      <c r="F12" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B12&amp;"'&gt;&lt;b&gt;"&amp;D12&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='input' class='form-control' id='"&amp;B12&amp;"' name='"&amp;B12&amp;"'  placeholder='Enter "&amp;D12&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='organization_name'&gt;&lt;b&gt;Organization Name&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='input' class='form-control' id='organization_name' name='organization_name'  placeholder='Enter Organization Name'/&gt;
+&lt;/div&gt;</v>
+      </c>
       <c r="G12" s="33" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" ht="120" x14ac:dyDescent="0.25">
+      <c r="B13" s="74" t="s">
+        <v>438</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="F13" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B13&amp;"'&gt;&lt;b&gt;"&amp;D13&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;B13&amp;"' name='"&amp;B13&amp;"'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='type_of_organization'&gt;&lt;b&gt;Type of Organization&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='type_of_organization' name='type_of_organization'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
       <c r="G13" s="33" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+      <c r="B14" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="F14" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B14&amp;"'&gt;&lt;b&gt;"&amp;D14&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='input' class='form-control' id='"&amp;B14&amp;"' name='"&amp;B14&amp;"'  placeholder='Enter "&amp;D14&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='postal_address'&gt;&lt;b&gt;Postal Address&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='input' class='form-control' id='postal_address' name='postal_address'  placeholder='Enter Postal Address'/&gt;
+&lt;/div&gt;</v>
+      </c>
       <c r="G14" s="18" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="F15" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B15&amp;"'&gt;&lt;b&gt;"&amp;D15&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='input' class='form-control' id='"&amp;B15&amp;"' name='"&amp;B15&amp;"'  placeholder='Enter "&amp;D15&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='email'&gt;&lt;b&gt;Email Address&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='input' class='form-control' id='email' name='email'  placeholder='Enter Email Address'/&gt;
+&lt;/div&gt;</v>
+      </c>
       <c r="G15" s="33" t="s">
         <v>426</v>
       </c>
-      <c r="I15" s="63" t="s">
+      <c r="I15" s="75" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" ht="90" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="F16" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B16&amp;"'&gt;&lt;b&gt;"&amp;D16&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='input' class='form-control' id='"&amp;B16&amp;"' name='"&amp;B16&amp;"'  placeholder='Enter "&amp;D16&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='phoneno'&gt;&lt;b&gt;Phone Number&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='input' class='form-control' id='phoneno' name='phoneno'  placeholder='Enter Phone Number'/&gt;
+&lt;/div&gt;</v>
+      </c>
       <c r="G16" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="I16" s="63"/>
-    </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="I16" s="75"/>
+    </row>
+    <row r="17" spans="2:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="B17" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="F17" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B17&amp;"'&gt;&lt;b&gt;"&amp;D17&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='input' class='form-control' id='"&amp;B17&amp;"' name='"&amp;B17&amp;"'  placeholder='Enter "&amp;D17&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='executive_name'&gt;&lt;b&gt;Executive Name&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='input' class='form-control' id='executive_name' name='executive_name'  placeholder='Enter Executive Name'/&gt;
+&lt;/div&gt;</v>
+      </c>
       <c r="G17" s="15" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="F18" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B18&amp;"'&gt;&lt;b&gt;"&amp;D18&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='input' class='form-control' id='"&amp;B18&amp;"' name='"&amp;B18&amp;"'  placeholder='Enter "&amp;D18&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='executive_title'&gt;&lt;b&gt;Executive Title&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='input' class='form-control' id='executive_title' name='executive_title'  placeholder='Enter Executive Title'/&gt;
+&lt;/div&gt;</v>
+      </c>
       <c r="G18" s="20" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="B19" s="74" t="s">
+        <v>538</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="F19" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B19&amp;"'&gt;&lt;b&gt;"&amp;D19&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;B19&amp;"' name='"&amp;B19&amp;"'  &gt;
+&lt;option value=''&gt;Select Option&lt;/option&gt;
+&lt;option value='Yes'&gt;Yes&lt;/option&gt;
+&lt;option value='No'&gt;No&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='has_registration_certificate'&gt;&lt;b&gt;Has Registration Certificate?&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='has_registration_certificate' name='has_registration_certificate'  &gt;
+&lt;option value=''&gt;Select Option&lt;/option&gt;
+&lt;option value='Yes'&gt;Yes&lt;/option&gt;
+&lt;option value='No'&gt;No&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
       <c r="G19" s="18" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="B20" s="74" t="s">
+        <v>444</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="F20" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B20&amp;"'&gt;&lt;b&gt;"&amp;D20&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;B20&amp;"' name='"&amp;B20&amp;"'  &gt;
+&lt;option value=''&gt;Select Option&lt;/option&gt;
+&lt;option value='Kenya'&gt;Kenya&lt;/option&gt;
+&lt;option value='Tanzania'&gt;Tanzania&lt;/option&gt;
+&lt;option value='Uganda'&gt;Uganda&lt;/option&gt;
+&lt;option value='US'&gt;US&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='nationality'&gt;&lt;b&gt;Nationality&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='nationality' name='nationality'  &gt;
+&lt;option value=''&gt;Select Option&lt;/option&gt;
+&lt;option value='Kenya'&gt;Kenya&lt;/option&gt;
+&lt;option value='Tanzania'&gt;Tanzania&lt;/option&gt;
+&lt;option value='Uganda'&gt;Uganda&lt;/option&gt;
+&lt;option value='US'&gt;US&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
       <c r="G20" s="18" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="74" t="s">
+        <v>445</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="F21" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B21&amp;"'&gt;&lt;b&gt;"&amp;D21&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;B21&amp;"' name='"&amp;B21&amp;"'  &gt;
+&lt;option value=''&gt;Select Option&lt;/option&gt;
+&lt;option value='Yes'&gt;Yes&lt;/option&gt;
+&lt;option value='No'&gt;No&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='has_pin_certificate'&gt;&lt;b&gt;Has Pin Certificate?&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='has_pin_certificate' name='has_pin_certificate'  &gt;
+&lt;option value=''&gt;Select Option&lt;/option&gt;
+&lt;option value='Yes'&gt;Yes&lt;/option&gt;
+&lt;option value='No'&gt;No&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
       <c r="G21" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="I21" s="64" t="s">
+      <c r="I21" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-    </row>
-    <row r="22" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+    </row>
+    <row r="22" spans="2:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="F22" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B22&amp;"'&gt;&lt;b&gt;"&amp;D22&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='input' class='form-control' id='"&amp;B22&amp;"' name='"&amp;B22&amp;"'  placeholder='Enter "&amp;D22&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='pin_number'&gt;&lt;b&gt;Pin Number&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='input' class='form-control' id='pin_number' name='pin_number'  placeholder='Enter Pin Number'/&gt;
+&lt;/div&gt;</v>
+      </c>
       <c r="G22" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-    </row>
-    <row r="23" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+    </row>
+    <row r="23" spans="2:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="B23" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>635</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="F23" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B23&amp;"'&gt;&lt;b&gt;"&amp;D23&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;B23&amp;"' name='"&amp;B23&amp;"'  &gt;
+&lt;option value=''&gt;Select Option&lt;/option&gt;
+&lt;option value='Yes'&gt;Yes&lt;/option&gt;
+&lt;option value='No'&gt;No&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='is_tax_compliant'&gt;&lt;b&gt;Is Tax Compliant?&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='is_tax_compliant' name='is_tax_compliant'  &gt;
+&lt;option value=''&gt;Select Option&lt;/option&gt;
+&lt;option value='Yes'&gt;Yes&lt;/option&gt;
+&lt;option value='No'&gt;No&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
       <c r="G23" s="18" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="24" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="B24" s="89" t="s">
+        <v>448</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="46" t="s">
+        <v>626</v>
+      </c>
+      <c r="E24" s="90" t="s">
+        <v>615</v>
+      </c>
+      <c r="F24" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B24&amp;"'&gt;&lt;b&gt;"&amp;D24&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='"&amp;B24&amp;"' name='"&amp;B24&amp;"'  placeholder='Enter "&amp;D24&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='tax_compliant_certificate_file'&gt;&lt;b&gt;Upload Tax Compliant Certificate&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='tax_compliant_certificate_file' name='tax_compliant_certificate_file'  placeholder='Enter Upload Tax Compliant Certificate'/&gt;
+&lt;/div&gt;</v>
+      </c>
       <c r="G24" s="18" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="25" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="F25" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B25&amp;"'&gt;&lt;b&gt;"&amp;D25&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='input' class='form-control' id='"&amp;B25&amp;"' name='"&amp;B25&amp;"'  placeholder='Enter "&amp;D25&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='universal_entity_number'&gt;&lt;b&gt;Universal Entity Number&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='input' class='form-control' id='universal_entity_number' name='universal_entity_number'  placeholder='Enter Universal Entity Number'/&gt;
+&lt;/div&gt;</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="26" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="B26" s="89" t="s">
+        <v>631</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="46" t="s">
+        <v>628</v>
+      </c>
+      <c r="E26" s="90" t="s">
+        <v>615</v>
+      </c>
+      <c r="F26" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B26&amp;"'&gt;&lt;b&gt;"&amp;D26&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='"&amp;B26&amp;"' name='"&amp;B26&amp;"'  placeholder='Enter "&amp;D26&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='universal_entity_certificate_file'&gt;&lt;b&gt;Upload Universal entity Certificate&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='universal_entity_certificate_file' name='universal_entity_certificate_file'  placeholder='Enter Upload Universal entity Certificate'/&gt;
+&lt;/div&gt;</v>
+      </c>
       <c r="G26" s="34" t="s">
         <v>436</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="B27" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="E27" s="94" t="s">
+        <v>592</v>
+      </c>
+      <c r="F27" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B27&amp;"'&gt;&lt;b&gt;"&amp;D27&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;B27&amp;"' name='"&amp;B27&amp;"'  &gt;
+&lt;option value=''&gt;Select Option&lt;/option&gt;
+&lt;option value='Eligible'&gt;Eligible&lt;/option&gt;
+&lt;option value='Ineligible'&gt;In eligible&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='final_eligibility_status'&gt;&lt;b&gt;Is the Applicant Eligible?&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='final_eligibility_status' name='final_eligibility_status'  &gt;
+&lt;option value=''&gt;Select Option&lt;/option&gt;
+&lt;option value='Eligible'&gt;Eligible&lt;/option&gt;
+&lt;option value='Ineligible'&gt;In eligible&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="E28" s="90" t="s">
+        <v>615</v>
+      </c>
+      <c r="F28" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B28&amp;"'&gt;&lt;b&gt;"&amp;D28&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='"&amp;B28&amp;"' name='"&amp;B28&amp;"'  placeholder='Enter "&amp;D28&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='pin_certificate_attachment'&gt;&lt;b&gt;Upload Pin Certificate Attachment&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='pin_certificate_attachment' name='pin_certificate_attachment'  placeholder='Enter Upload Pin Certificate Attachment'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="B29" s="93" t="s">
+        <v>643</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="E29" s="90" t="s">
+        <v>615</v>
+      </c>
+      <c r="F29" s="66" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B29&amp;"'&gt;&lt;b&gt;"&amp;D29&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='"&amp;B29&amp;"' name='"&amp;B29&amp;"'  placeholder='Enter "&amp;D29&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='other_requirement_attachment_file'&gt;&lt;b&gt;Upload Other Required Attachments&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='other_requirement_attachment_file' name='other_requirement_attachment_file'  placeholder='Enter Upload Other Required Attachments'/&gt;
+&lt;/div&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -9948,207 +11141,101 @@
     <mergeCell ref="I21:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="9"/>
+    <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" customWidth="1"/>
-    <col min="3" max="3" width="40.86328125" style="49" customWidth="1"/>
-    <col min="4" max="7" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.59765625" customWidth="1"/>
-    <col min="15" max="16" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>257</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>543</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>330</v>
+        <v>640</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="14">
-        <v>44965.416701388887</v>
-      </c>
-      <c r="P2" s="14">
-        <v>44965.416701388887</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="R2" s="3">
+        <v>206</v>
+      </c>
+      <c r="C2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="5" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C5" s="50" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="196.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="51" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="20"/>
-    </row>
-    <row r="8" spans="1:18" ht="125.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="52" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="C9" s="44" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="C10" s="44" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="C11" s="44" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="C12" s="44" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C13" s="47" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="C14" s="46"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="C15" s="46" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="C16" s="45" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C17" s="45" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C18" s="46" t="s">
-        <v>532</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>638</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10157,6 +11244,212 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:R18"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="14">
+        <v>44965.416701388887</v>
+      </c>
+      <c r="P2" s="14">
+        <v>44965.416701388887</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="50" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="196.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="51" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:18" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="52" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="44" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="44" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C11" s="44" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="44" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="47" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C14" s="46"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="46" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="C16" s="45" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C17" s="45" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="46" t="s">
+        <v>532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
@@ -10167,130 +11460,130 @@
       <selection activeCell="B12" sqref="B12:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="187.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="187.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>257</v>
       </c>
       <c r="B1" s="53" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>556</v>
+      </c>
+      <c r="D1" s="53" t="s">
         <v>557</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>558</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>559</v>
       </c>
       <c r="E1" s="53" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G11" s="15" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="65" t="s">
-        <v>580</v>
-      </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="77" t="s">
+        <v>578</v>
+      </c>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="79"/>
       <c r="G12" s="20" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
       <c r="G13" s="18" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="82"/>
       <c r="G14" s="18" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="70"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="82"/>
       <c r="G15" s="18" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85"/>
       <c r="G16" s="18" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G17" s="33" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="54"/>
       <c r="C18" s="55"/>
       <c r="D18" s="55"/>
@@ -10299,7 +11592,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="57"/>
       <c r="C19" s="58"/>
       <c r="D19" s="58"/>
@@ -10308,7 +11601,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="60"/>
       <c r="C20" s="61"/>
       <c r="D20" s="61"/>
@@ -10325,7 +11618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
@@ -10336,12 +11629,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="55.59765625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
@@ -10352,7 +11645,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -10363,7 +11656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -10374,7 +11667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -10385,7 +11678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>4</v>
       </c>
@@ -10393,213 +11686,6 @@
         <v>478</v>
       </c>
       <c r="C5" s="29">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C17" s="3">
         <v>1</v>
       </c>
     </row>

--- a/web/database_design.xlsx
+++ b/web/database_design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="6240" tabRatio="957" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="6240" tabRatio="957" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="key input fields" sheetId="55" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="661">
   <si>
     <t>1.0 Grant Information</t>
   </si>
@@ -4893,9 +4893,6 @@
   </si>
   <si>
     <t>has_registration_certificate</t>
-  </si>
-  <si>
-    <t>tx_compliance_attachment_id</t>
   </si>
   <si>
     <t>applicate_id</t>
@@ -5231,6 +5228,51 @@
   </si>
   <si>
     <t>Is the Applicant Eligible?</t>
+  </si>
+  <si>
+    <t>pin_certificate_attachment_file</t>
+  </si>
+  <si>
+    <t>Applicant Name</t>
+  </si>
+  <si>
+    <t>Technical Evaluation Score</t>
+  </si>
+  <si>
+    <t>M&amp;E Evaluation Score</t>
+  </si>
+  <si>
+    <t>Finance Evaluation</t>
+  </si>
+  <si>
+    <t>Other Evaluation</t>
+  </si>
+  <si>
+    <t>Overall score</t>
+  </si>
+  <si>
+    <t>Technical Evaluation attachment</t>
+  </si>
+  <si>
+    <t>Monitoring and Evaluation Attachment</t>
+  </si>
+  <si>
+    <t>Finance Evaluation attachment</t>
+  </si>
+  <si>
+    <t>Other Evaluation Attachments</t>
+  </si>
+  <si>
+    <t>Is applicant selected?</t>
+  </si>
+  <si>
+    <t>Post evaluation Minutes Upload</t>
+  </si>
+  <si>
+    <t>Finance Evaluation Score</t>
+  </si>
+  <si>
+    <t>Other Evaluation Score</t>
   </si>
 </sst>
 </file>
@@ -5240,7 +5282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy:mm:dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5299,8 +5341,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5337,8 +5394,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -5543,11 +5612,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
@@ -5613,9 +5695,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="10"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5694,12 +5773,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5737,20 +5823,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6034,46 +6149,46 @@
   <dimension ref="B6:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35" style="67" customWidth="1"/>
+    <col min="2" max="2" width="35" style="66" customWidth="1"/>
     <col min="3" max="3" width="107" customWidth="1"/>
     <col min="4" max="4" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="67" t="s">
+        <v>593</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B8" s="67" t="s">
         <v>594</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C8" s="65" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B8" s="68" t="s">
+    <row r="11" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B11" s="67" t="s">
         <v>595</v>
       </c>
-      <c r="C8" s="66" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B11" s="68" t="s">
+      <c r="C11" s="65" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B14" s="67" t="s">
         <v>596</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C14" s="65" t="s">
         <v>598</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B14" s="68" t="s">
-        <v>597</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -6461,13 +6576,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="90" t="s">
         <v>388</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -8291,8 +8406,8 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8356,7 +8471,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E2" s="4">
         <v>84478</v>
@@ -8378,34 +8493,34 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C3" t="s">
         <v>579</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>580</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>581</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>582</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>583</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>584</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>585</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>586</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>587</v>
-      </c>
-      <c r="K3" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8459,31 +8574,31 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38" t="s">
+        <v>588</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>589</v>
       </c>
-      <c r="D16" s="39" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>414</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="64" t="s">
-        <v>414</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="E17" s="66" t="str">
+      <c r="E17" s="65" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;A17&amp;"'&gt;&lt;b&gt;"&amp;C17&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input type='input' class='form-control' id='"&amp;A17&amp;"' name='"&amp;A17&amp;"'  placeholder='Enter "&amp;C17&amp;"'/&gt;
@@ -8495,19 +8610,19 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="63" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="E18" s="66" t="str">
+        <v>590</v>
+      </c>
+      <c r="E18" s="65" t="str">
         <f t="shared" ref="E18:E25" si="0">"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;A18&amp;"'&gt;&lt;b&gt;"&amp;C18&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input type='input' class='form-control' id='"&amp;A18&amp;"' name='"&amp;A18&amp;"'  placeholder='Enter "&amp;C18&amp;"'/&gt;
@@ -8519,19 +8634,19 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="63" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="E19" s="66" t="str">
+        <v>590</v>
+      </c>
+      <c r="E19" s="65" t="str">
         <f t="shared" si="0"/>
         <v>&lt;div class='form-group col-md-4'&gt;
 &lt;label for='prime_recipient'&gt;&lt;b&gt;Prime Recipient&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
@@ -8540,19 +8655,19 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20" s="63">
         <v>84478</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="E20" s="66" t="str">
+        <v>590</v>
+      </c>
+      <c r="E20" s="65" t="str">
         <f t="shared" si="0"/>
         <v>&lt;div class='form-group col-md-4'&gt;
 &lt;label for='prime_award_number'&gt;&lt;b&gt;Prime Award Number&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
@@ -8561,19 +8676,19 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="63" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="E21" s="66" t="str">
+        <v>591</v>
+      </c>
+      <c r="E21" s="65" t="str">
         <f t="shared" si="0"/>
         <v>&lt;div class='form-group col-md-4'&gt;
 &lt;label for='country_of_implementation'&gt;&lt;b&gt;Country of Implementation&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
@@ -8582,19 +8697,19 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="65">
+      <c r="B22" s="64">
         <v>44317</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="E22" s="66" t="str">
+        <v>592</v>
+      </c>
+      <c r="E22" s="65" t="str">
         <f t="shared" si="0"/>
         <v>&lt;div class='form-group col-md-4'&gt;
 &lt;label for='implementation_startdate'&gt;&lt;b&gt;Implementation Start Date&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
@@ -8603,19 +8718,19 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="65">
+      <c r="B23" s="64">
         <v>46142</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="E23" s="66" t="str">
+        <v>592</v>
+      </c>
+      <c r="E23" s="65" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;A23&amp;"'&gt;&lt;b&gt;"&amp;C23&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input type='input' class='form-control tarehe_kesho' id='"&amp;A23&amp;"' name='"&amp;A23&amp;"'  placeholder='Enter "&amp;C23&amp;"'/&gt;
@@ -8627,19 +8742,19 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="65">
+      <c r="B24" s="64">
         <v>46142</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="E24" s="66" t="str">
+        <v>590</v>
+      </c>
+      <c r="E24" s="65" t="str">
         <f t="shared" si="0"/>
         <v>&lt;div class='form-group col-md-4'&gt;
 &lt;label for='obligation_enddate'&gt;&lt;b&gt;Obligation End Date&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
@@ -8648,17 +8763,17 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="64"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="E25" s="66" t="str">
+        <v>590</v>
+      </c>
+      <c r="E25" s="65" t="str">
         <f t="shared" si="0"/>
         <v>&lt;div class='form-group col-md-4'&gt;
 &lt;label for='costshare_obligation'&gt;&lt;b&gt;Cost Share Obligation&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
@@ -8667,15 +8782,15 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="64"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="66" t="str">
+      <c r="E26" s="65" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;A26&amp;"'&gt;&lt;b&gt;"&amp;C26&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='"&amp;A26&amp;"' name='"&amp;A26&amp;"'  placeholder='Enter "&amp;C26&amp;"'/&gt;
@@ -9091,7 +9206,7 @@
       <c r="S1" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="37" t="s">
         <v>510</v>
       </c>
     </row>
@@ -9151,7 +9266,7 @@
       <c r="S2" s="3">
         <v>1</v>
       </c>
-      <c r="T2" s="38">
+      <c r="T2" s="37">
         <v>7873468837</v>
       </c>
     </row>
@@ -9254,19 +9369,19 @@
       <c r="C1" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>339</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>342</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -9347,12 +9462,12 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -9365,7 +9480,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>332</v>
       </c>
       <c r="D8" t="s">
@@ -9378,22 +9493,22 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="39" t="s">
         <v>516</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="91" t="s">
         <v>340</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="18" t="s">
@@ -9401,34 +9516,34 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="F12" s="87" t="s">
+      <c r="F12" s="91" t="s">
         <v>340</v>
       </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="F13" s="87" t="s">
+      <c r="F13" s="91" t="s">
         <v>346</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9472,40 +9587,40 @@
         <v>257</v>
       </c>
       <c r="B1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1" t="s">
         <v>564</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>565</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>566</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>567</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>568</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>569</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>570</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>571</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>572</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>573</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>574</v>
-      </c>
-      <c r="M1" t="s">
-        <v>575</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>268</v>
@@ -9522,43 +9637,43 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N2" s="14">
         <v>44965.416701388887</v>
@@ -9575,43 +9690,43 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N3" s="14">
         <v>44965.416701388887</v>
@@ -9709,8 +9824,8 @@
   </sheetPr>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9812,41 +9927,41 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58" t="s">
-        <v>612</v>
-      </c>
-      <c r="C3" s="58" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57" t="s">
+        <v>611</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>602</v>
+      </c>
+      <c r="D3" s="57" t="s">
         <v>603</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="E3" s="57" t="s">
         <v>604</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="F3" s="68" t="s">
         <v>605</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="G3" s="70" t="s">
         <v>606</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="H3" s="70" t="s">
         <v>607</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="I3" s="70" t="s">
         <v>608</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="J3" s="70" t="s">
+        <v>610</v>
+      </c>
+      <c r="K3" s="70" t="s">
         <v>609</v>
       </c>
-      <c r="J3" s="71" t="s">
-        <v>611</v>
-      </c>
-      <c r="K3" s="71" t="s">
-        <v>610</v>
-      </c>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -9930,13 +10045,13 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
+      <c r="B15" s="41"/>
       <c r="D15" s="18" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="42" t="s">
         <v>520</v>
       </c>
       <c r="D16" s="18" t="s">
@@ -10017,15 +10132,15 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39" t="s">
-        <v>613</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>590</v>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38" t="s">
+        <v>612</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -10036,12 +10151,12 @@
         <v>361</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="D35" s="72" t="s">
-        <v>592</v>
-      </c>
-      <c r="E35" s="66" t="str">
+        <v>611</v>
+      </c>
+      <c r="D35" s="71" t="s">
+        <v>591</v>
+      </c>
+      <c r="E35" s="65" t="str">
         <f t="shared" ref="E35" si="0">"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;A35&amp;"'&gt;&lt;b&gt;"&amp;C35&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input type='input' class='form-control' id='"&amp;A35&amp;"' name='"&amp;A35&amp;"'  placeholder='Enter "&amp;C35&amp;"'/&gt;
@@ -10058,12 +10173,12 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D36" t="s">
-        <v>591</v>
-      </c>
-      <c r="E36" s="66" t="str">
+        <v>590</v>
+      </c>
+      <c r="E36" s="65" t="str">
         <f t="shared" ref="E36" si="1">"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;A36&amp;"'&gt;&lt;b&gt;"&amp;C36&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input type='input' class='form-control' id='"&amp;A36&amp;"' name='"&amp;A36&amp;"'  placeholder='Enter "&amp;C36&amp;"'/&gt;
@@ -10080,12 +10195,12 @@
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D37" t="s">
-        <v>614</v>
-      </c>
-      <c r="E37" s="66" t="str">
+        <v>613</v>
+      </c>
+      <c r="E37" s="65" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;A37&amp;"'&gt;&lt;b&gt;"&amp;C37&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input type='input' class='form-control tarehe' id='"&amp;A37&amp;"' name='"&amp;A37&amp;"'  placeholder='Enter "&amp;C37&amp;"'/&gt;
@@ -10102,12 +10217,12 @@
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D38" t="s">
-        <v>614</v>
-      </c>
-      <c r="E38" s="66" t="str">
+        <v>613</v>
+      </c>
+      <c r="E38" s="65" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;A38&amp;"'&gt;&lt;b&gt;"&amp;C38&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input type='input' class='form-control tarehe_kesho' id='"&amp;A38&amp;"' name='"&amp;A38&amp;"'  placeholder='Enter "&amp;C38&amp;"'/&gt;
@@ -10126,10 +10241,10 @@
         <v>367</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D39" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -10138,12 +10253,12 @@
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="27" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D40" t="s">
-        <v>614</v>
-      </c>
-      <c r="E40" s="66" t="str">
+        <v>613</v>
+      </c>
+      <c r="E40" s="65" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;A40&amp;"'&gt;&lt;b&gt;"&amp;C40&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input type='input' class='form-control tarehe' id='"&amp;A40&amp;"' name='"&amp;A40&amp;"'  placeholder='Enter "&amp;C40&amp;"'/&gt;
@@ -10160,12 +10275,12 @@
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="27" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D41" t="s">
-        <v>614</v>
-      </c>
-      <c r="E41" s="66" t="str">
+        <v>613</v>
+      </c>
+      <c r="E41" s="65" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;A41&amp;"'&gt;&lt;b&gt;"&amp;C41&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input type='input' class='form-control tarehe_kesho' id='"&amp;A41&amp;"' name='"&amp;A41&amp;"'  placeholder='Enter "&amp;C41&amp;"'/&gt;
@@ -10184,12 +10299,12 @@
         <v>371</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>592</v>
-      </c>
-      <c r="E42" s="66" t="str">
+        <v>591</v>
+      </c>
+      <c r="E42" s="65" t="str">
         <f t="shared" ref="E42:E43" si="2">"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;A42&amp;"'&gt;&lt;b&gt;"&amp;C42&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input type='input' class='form-control' id='"&amp;A42&amp;"' name='"&amp;A42&amp;"'  placeholder='Enter "&amp;C42&amp;"'/&gt;
@@ -10208,12 +10323,12 @@
         <v>517</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>611</v>
-      </c>
-      <c r="D43" s="73" t="s">
-        <v>591</v>
-      </c>
-      <c r="E43" s="66" t="str">
+        <v>610</v>
+      </c>
+      <c r="D43" s="72" t="s">
+        <v>590</v>
+      </c>
+      <c r="E43" s="65" t="str">
         <f t="shared" si="2"/>
         <v>&lt;div class='form-group col-md-4'&gt;
 &lt;label for='attachment_name'&gt;&lt;b&gt;Documents Name(s)&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
@@ -10229,12 +10344,12 @@
         <v>330</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="D44" s="73" t="s">
-        <v>615</v>
-      </c>
-      <c r="E44" s="66" t="str">
+        <v>609</v>
+      </c>
+      <c r="D44" s="72" t="s">
+        <v>614</v>
+      </c>
+      <c r="E44" s="65" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;A44&amp;"'&gt;&lt;b&gt;"&amp;C44&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input type='file' class='form-control custom-file-input' id='"&amp;A44&amp;"' name='"&amp;A44&amp;"'  placeholder='Enter "&amp;C44&amp;"'/&gt;
@@ -10308,18 +10423,18 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="9"/>
+    <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.28515625" style="26" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
@@ -10350,25 +10465,25 @@
       <c r="B1" s="74" t="s">
         <v>518</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="75" t="s">
         <v>437</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="102" t="s">
         <v>438</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="76" t="s">
         <v>439</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="77" t="s">
         <v>371</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="76" t="s">
         <v>440</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="76" t="s">
         <v>441</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="76" t="s">
         <v>442</v>
       </c>
       <c r="J1" s="74" t="s">
@@ -10380,35 +10495,35 @@
       <c r="L1" s="74" t="s">
         <v>445</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="76" t="s">
         <v>446</v>
       </c>
       <c r="N1" s="74" t="s">
         <v>447</v>
       </c>
-      <c r="O1" s="89" t="s">
+      <c r="O1" s="78" t="s">
         <v>448</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="76" t="s">
         <v>449</v>
       </c>
-      <c r="Q1" s="89" t="s">
-        <v>631</v>
-      </c>
-      <c r="R1" s="27" t="s">
+      <c r="Q1" s="78" t="s">
+        <v>630</v>
+      </c>
+      <c r="R1" s="76" t="s">
         <v>450</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="75" t="s">
+        <v>641</v>
+      </c>
+      <c r="T1" s="79" t="s">
         <v>642</v>
       </c>
-      <c r="T1" s="93" t="s">
-        <v>643</v>
-      </c>
       <c r="U1" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>557</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>480</v>
@@ -10434,11 +10549,11 @@
       <c r="C2" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="62">
         <v>2022</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="65" t="s">
         <v>533</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -10470,13 +10585,13 @@
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>561</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>562</v>
       </c>
       <c r="X2" s="14">
         <v>44965.416701388887</v>
@@ -10494,59 +10609,59 @@
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>616</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>618</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="F3" s="66" t="s">
-        <v>619</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>626</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
@@ -10567,35 +10682,35 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39" t="s">
-        <v>613</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>590</v>
-      </c>
-      <c r="F10" s="92" t="s">
-        <v>633</v>
+      <c r="C10" s="38"/>
+      <c r="D10" s="103" t="s">
+        <v>612</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>589</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>632</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="120" x14ac:dyDescent="0.25">
-      <c r="B11" s="74" t="s">
+    <row r="11" spans="1:27" s="15" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B11" s="93" t="s">
         <v>518</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>592</v>
-      </c>
-      <c r="F11" s="66" t="str">
+      <c r="C11" s="45"/>
+      <c r="D11" s="104" t="s">
+        <v>631</v>
+      </c>
+      <c r="E11" s="94" t="s">
+        <v>591</v>
+      </c>
+      <c r="F11" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B11&amp;"'&gt;&lt;b&gt;"&amp;D11&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;select required='true' class='form-control' id='"&amp;B11&amp;"' name='"&amp;B11&amp;"'  &gt;
@@ -10609,24 +10724,24 @@
 &lt;/select&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="105" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:27" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B12" s="45" t="s">
         <v>437</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="45" t="s">
         <v>309</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="E12" s="90" t="s">
-        <v>591</v>
-      </c>
-      <c r="F12" s="66" t="str">
+      <c r="D12" s="104" t="s">
+        <v>615</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>590</v>
+      </c>
+      <c r="F12" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B12&amp;"'&gt;&lt;b&gt;"&amp;D12&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input required='true' type='input' class='form-control' id='"&amp;B12&amp;"' name='"&amp;B12&amp;"'  placeholder='Enter "&amp;D12&amp;"'/&gt;
@@ -10636,24 +10751,24 @@
 &lt;input required='true' type='input' class='form-control' id='organization_name' name='organization_name'  placeholder='Enter Organization Name'/&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="120" x14ac:dyDescent="0.25">
-      <c r="B13" s="74" t="s">
+    <row r="13" spans="1:27" s="15" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B13" s="93" t="s">
         <v>438</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="45">
         <v>2022</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>592</v>
-      </c>
-      <c r="F13" s="66" t="str">
+      <c r="D13" s="104" t="s">
+        <v>616</v>
+      </c>
+      <c r="E13" s="94" t="s">
+        <v>591</v>
+      </c>
+      <c r="F13" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B13&amp;"'&gt;&lt;b&gt;"&amp;D13&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;select required='true' class='form-control' id='"&amp;B13&amp;"' name='"&amp;B13&amp;"'  &gt;
@@ -10667,22 +10782,22 @@
 &lt;/select&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="90" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
+    <row r="14" spans="1:27" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B14" s="96" t="s">
         <v>439</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>591</v>
-      </c>
-      <c r="F14" s="66" t="str">
+      <c r="C14" s="45"/>
+      <c r="D14" s="104" t="s">
+        <v>617</v>
+      </c>
+      <c r="E14" s="94" t="s">
+        <v>590</v>
+      </c>
+      <c r="F14" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B14&amp;"'&gt;&lt;b&gt;"&amp;D14&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input required='true' type='input' class='form-control' id='"&amp;B14&amp;"' name='"&amp;B14&amp;"'  placeholder='Enter "&amp;D14&amp;"'/&gt;
@@ -10692,24 +10807,24 @@
 &lt;input required='true' type='input' class='form-control' id='postal_address' name='postal_address'  placeholder='Enter Postal Address'/&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="97" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="90" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
+    <row r="15" spans="1:27" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B15" s="96" t="s">
         <v>371</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="45" t="s">
         <v>533</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>591</v>
-      </c>
-      <c r="F15" s="66" t="str">
+      <c r="D15" s="104" t="s">
+        <v>618</v>
+      </c>
+      <c r="E15" s="94" t="s">
+        <v>590</v>
+      </c>
+      <c r="F15" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B15&amp;"'&gt;&lt;b&gt;"&amp;D15&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input required='true' type='input' class='form-control' id='"&amp;B15&amp;"' name='"&amp;B15&amp;"'  placeholder='Enter "&amp;D15&amp;"'/&gt;
@@ -10719,27 +10834,27 @@
 &lt;input required='true' type='input' class='form-control' id='email' name='email'  placeholder='Enter Email Address'/&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="I15" s="75" t="s">
+      <c r="I15" s="80" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="90" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+    <row r="16" spans="1:27" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B16" s="96" t="s">
         <v>440</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="45" t="s">
         <v>534</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>591</v>
-      </c>
-      <c r="F16" s="66" t="str">
+      <c r="D16" s="104" t="s">
+        <v>619</v>
+      </c>
+      <c r="E16" s="94" t="s">
+        <v>590</v>
+      </c>
+      <c r="F16" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B16&amp;"'&gt;&lt;b&gt;"&amp;D16&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input required='true' type='input' class='form-control' id='"&amp;B16&amp;"' name='"&amp;B16&amp;"'  placeholder='Enter "&amp;D16&amp;"'/&gt;
@@ -10749,25 +10864,25 @@
 &lt;input required='true' type='input' class='form-control' id='phoneno' name='phoneno'  placeholder='Enter Phone Number'/&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="I16" s="75"/>
-    </row>
-    <row r="17" spans="2:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
+      <c r="I16" s="80"/>
+    </row>
+    <row r="17" spans="2:11" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B17" s="96" t="s">
         <v>441</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>591</v>
-      </c>
-      <c r="F17" s="66" t="str">
+      <c r="D17" s="104" t="s">
+        <v>620</v>
+      </c>
+      <c r="E17" s="94" t="s">
+        <v>590</v>
+      </c>
+      <c r="F17" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B17&amp;"'&gt;&lt;b&gt;"&amp;D17&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input required='true' type='input' class='form-control' id='"&amp;B17&amp;"' name='"&amp;B17&amp;"'  placeholder='Enter "&amp;D17&amp;"'/&gt;
@@ -10781,20 +10896,20 @@
         <v>428</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
+    <row r="18" spans="2:11" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B18" s="96" t="s">
         <v>442</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="45" t="s">
         <v>536</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>591</v>
-      </c>
-      <c r="F18" s="66" t="str">
+      <c r="D18" s="104" t="s">
+        <v>621</v>
+      </c>
+      <c r="E18" s="94" t="s">
+        <v>590</v>
+      </c>
+      <c r="F18" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B18&amp;"'&gt;&lt;b&gt;"&amp;D18&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input required='true' type='input' class='form-control' id='"&amp;B18&amp;"' name='"&amp;B18&amp;"'  placeholder='Enter "&amp;D18&amp;"'/&gt;
@@ -10808,20 +10923,20 @@
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="B19" s="74" t="s">
+    <row r="19" spans="2:11" s="15" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="B19" s="93" t="s">
         <v>538</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="45" t="s">
         <v>537</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>592</v>
-      </c>
-      <c r="F19" s="66" t="str">
+      <c r="D19" s="104" t="s">
+        <v>629</v>
+      </c>
+      <c r="E19" s="94" t="s">
+        <v>591</v>
+      </c>
+      <c r="F19" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B19&amp;"'&gt;&lt;b&gt;"&amp;D19&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;select required='true' class='form-control' id='"&amp;B19&amp;"' name='"&amp;B19&amp;"'  &gt;
@@ -10839,22 +10954,22 @@
 &lt;/select&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="97" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="B20" s="74" t="s">
+    <row r="20" spans="2:11" s="15" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="B20" s="93" t="s">
         <v>444</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>592</v>
-      </c>
-      <c r="F20" s="66" t="str">
+      <c r="C20" s="45"/>
+      <c r="D20" s="104" t="s">
+        <v>622</v>
+      </c>
+      <c r="E20" s="94" t="s">
+        <v>591</v>
+      </c>
+      <c r="F20" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B20&amp;"'&gt;&lt;b&gt;"&amp;D20&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;select required='true' class='form-control' id='"&amp;B20&amp;"' name='"&amp;B20&amp;"'  &gt;
@@ -10876,22 +10991,22 @@
 &lt;/select&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="97" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="74" t="s">
+    <row r="21" spans="2:11" s="15" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="93" t="s">
         <v>445</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>592</v>
-      </c>
-      <c r="F21" s="66" t="str">
+      <c r="C21" s="45"/>
+      <c r="D21" s="104" t="s">
+        <v>633</v>
+      </c>
+      <c r="E21" s="94" t="s">
+        <v>591</v>
+      </c>
+      <c r="F21" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B21&amp;"'&gt;&lt;b&gt;"&amp;D21&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;select required='true' class='form-control' id='"&amp;B21&amp;"' name='"&amp;B21&amp;"'  &gt;
@@ -10909,27 +11024,27 @@
 &lt;/select&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="97" t="s">
         <v>432</v>
       </c>
-      <c r="I21" s="76" t="s">
+      <c r="I21" s="98" t="s">
         <v>452</v>
       </c>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-    </row>
-    <row r="22" spans="2:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+    </row>
+    <row r="22" spans="2:11" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B22" s="96" t="s">
         <v>446</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>591</v>
-      </c>
-      <c r="F22" s="66" t="str">
+      <c r="C22" s="45"/>
+      <c r="D22" s="104" t="s">
+        <v>624</v>
+      </c>
+      <c r="E22" s="94" t="s">
+        <v>590</v>
+      </c>
+      <c r="F22" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B22&amp;"'&gt;&lt;b&gt;"&amp;D22&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input required='true' type='input' class='form-control' id='"&amp;B22&amp;"' name='"&amp;B22&amp;"'  placeholder='Enter "&amp;D22&amp;"'/&gt;
@@ -10939,27 +11054,27 @@
 &lt;input required='true' type='input' class='form-control' id='pin_number' name='pin_number'  placeholder='Enter Pin Number'/&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="97" t="s">
         <v>433</v>
       </c>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-    </row>
-    <row r="23" spans="2:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="B23" s="74" t="s">
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+    </row>
+    <row r="23" spans="2:11" s="15" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="B23" s="93" t="s">
         <v>447</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="96" t="s">
         <v>448</v>
       </c>
-      <c r="D23" s="46" t="s">
-        <v>635</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>592</v>
-      </c>
-      <c r="F23" s="66" t="str">
+      <c r="D23" s="104" t="s">
+        <v>634</v>
+      </c>
+      <c r="E23" s="94" t="s">
+        <v>591</v>
+      </c>
+      <c r="F23" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B23&amp;"'&gt;&lt;b&gt;"&amp;D23&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;select required='true' class='form-control' id='"&amp;B23&amp;"' name='"&amp;B23&amp;"'  &gt;
@@ -10977,22 +11092,22 @@
 &lt;/select&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="97" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="B24" s="89" t="s">
+    <row r="24" spans="2:11" s="15" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B24" s="99" t="s">
         <v>448</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="46" t="s">
-        <v>626</v>
-      </c>
-      <c r="E24" s="90" t="s">
-        <v>615</v>
-      </c>
-      <c r="F24" s="66" t="str">
+      <c r="C24" s="45"/>
+      <c r="D24" s="104" t="s">
+        <v>625</v>
+      </c>
+      <c r="E24" s="95" t="s">
+        <v>614</v>
+      </c>
+      <c r="F24" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B24&amp;"'&gt;&lt;b&gt;"&amp;D24&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input required='true' type='file' class='form-control' id='"&amp;B24&amp;"' name='"&amp;B24&amp;"'  placeholder='Enter "&amp;D24&amp;"'/&gt;
@@ -11002,22 +11117,22 @@
 &lt;input required='true' type='file' class='form-control' id='tax_compliant_certificate_file' name='tax_compliant_certificate_file'  placeholder='Enter Upload Tax Compliant Certificate'/&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="97" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
+    <row r="25" spans="2:11" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B25" s="96" t="s">
         <v>449</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>591</v>
-      </c>
-      <c r="F25" s="66" t="str">
+      <c r="C25" s="45"/>
+      <c r="D25" s="104" t="s">
+        <v>640</v>
+      </c>
+      <c r="E25" s="94" t="s">
+        <v>590</v>
+      </c>
+      <c r="F25" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B25&amp;"'&gt;&lt;b&gt;"&amp;D25&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input required='true' type='input' class='form-control' id='"&amp;B25&amp;"' name='"&amp;B25&amp;"'  placeholder='Enter "&amp;D25&amp;"'/&gt;
@@ -11027,23 +11142,23 @@
 &lt;input required='true' type='input' class='form-control' id='universal_entity_number' name='universal_entity_number'  placeholder='Enter Universal Entity Number'/&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" t="s">
+      <c r="G25" s="97"/>
+      <c r="H25" s="15" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="B26" s="89" t="s">
-        <v>631</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="46" t="s">
-        <v>628</v>
-      </c>
-      <c r="E26" s="90" t="s">
-        <v>615</v>
-      </c>
-      <c r="F26" s="66" t="str">
+    <row r="26" spans="2:11" s="15" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B26" s="99" t="s">
+        <v>630</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="104" t="s">
+        <v>627</v>
+      </c>
+      <c r="E26" s="95" t="s">
+        <v>614</v>
+      </c>
+      <c r="F26" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B26&amp;"'&gt;&lt;b&gt;"&amp;D26&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input required='true' type='file' class='form-control' id='"&amp;B26&amp;"' name='"&amp;B26&amp;"'  placeholder='Enter "&amp;D26&amp;"'/&gt;
@@ -11053,24 +11168,24 @@
 &lt;input required='true' type='file' class='form-control' id='universal_entity_certificate_file' name='universal_entity_certificate_file'  placeholder='Enter Upload Universal entity Certificate'/&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
+    <row r="27" spans="2:11" s="15" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="B27" s="96" t="s">
         <v>450</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="45" t="s">
         <v>451</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="E27" s="94" t="s">
-        <v>592</v>
-      </c>
-      <c r="F27" s="66" t="str">
+      <c r="D27" s="104" t="s">
+        <v>645</v>
+      </c>
+      <c r="E27" s="100" t="s">
+        <v>591</v>
+      </c>
+      <c r="F27" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B27&amp;"'&gt;&lt;b&gt;"&amp;D27&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;select required='true' class='form-control' id='"&amp;B27&amp;"' name='"&amp;B27&amp;"'  &gt;
@@ -11089,42 +11204,42 @@
 &lt;/div&gt;</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="C28" s="3" t="s">
+    <row r="28" spans="2:11" s="15" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="45" t="s">
+        <v>646</v>
+      </c>
+      <c r="C28" s="45" t="s">
         <v>329</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="E28" s="90" t="s">
-        <v>615</v>
-      </c>
-      <c r="F28" s="66" t="str">
+      <c r="D28" s="104" t="s">
+        <v>644</v>
+      </c>
+      <c r="E28" s="95" t="s">
+        <v>614</v>
+      </c>
+      <c r="F28" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B28&amp;"'&gt;&lt;b&gt;"&amp;D28&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input required='true' type='file' class='form-control' id='"&amp;B28&amp;"' name='"&amp;B28&amp;"'  placeholder='Enter "&amp;D28&amp;"'/&gt;
 &lt;/div&gt;"</f>
         <v>&lt;div class='form-group col-md-4'&gt;
-&lt;label for='pin_certificate_attachment'&gt;&lt;b&gt;Upload Pin Certificate Attachment&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
-&lt;input required='true' type='file' class='form-control' id='pin_certificate_attachment' name='pin_certificate_attachment'  placeholder='Enter Upload Pin Certificate Attachment'/&gt;
+&lt;label for='pin_certificate_attachment_file'&gt;&lt;b&gt;Upload Pin Certificate Attachment&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='pin_certificate_attachment_file' name='pin_certificate_attachment_file'  placeholder='Enter Upload Pin Certificate Attachment'/&gt;
 &lt;/div&gt;</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="B29" s="93" t="s">
+    <row r="29" spans="2:11" s="15" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B29" s="101" t="s">
+        <v>642</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="104" t="s">
         <v>643</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="E29" s="90" t="s">
-        <v>615</v>
-      </c>
-      <c r="F29" s="66" t="str">
+      <c r="E29" s="95" t="s">
+        <v>614</v>
+      </c>
+      <c r="F29" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B29&amp;"'&gt;&lt;b&gt;"&amp;D29&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input required='true' type='file' class='form-control' id='"&amp;B29&amp;"' name='"&amp;B29&amp;"'  placeholder='Enter "&amp;D29&amp;"'/&gt;
@@ -11166,7 +11281,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>375</v>
@@ -11188,7 +11303,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -11199,7 +11314,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -11210,7 +11325,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -11232,7 +11347,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -11248,53 +11363,55 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="108.85546875" customWidth="1"/>
+    <col min="6" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>540</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>545</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>546</v>
@@ -11306,35 +11423,32 @@
         <v>548</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>553</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>554</v>
+        <v>268</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="R1" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="47" t="s">
         <v>330</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -11350,7 +11464,7 @@
         <v>330</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>330</v>
+        <v>549</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>550</v>
@@ -11358,90 +11472,421 @@
       <c r="J2" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>552</v>
-      </c>
+      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="N2" s="14">
+        <v>44965.416701388887</v>
+      </c>
       <c r="O2" s="14">
         <v>44965.416701388887</v>
       </c>
-      <c r="P2" s="14">
-        <v>44965.416701388887</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="R2" s="3">
+      <c r="Q2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="50" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>648</v>
+      </c>
+      <c r="D3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E3" t="s">
+        <v>650</v>
+      </c>
+      <c r="F3" t="s">
+        <v>651</v>
+      </c>
+      <c r="G3" t="s">
+        <v>652</v>
+      </c>
+      <c r="H3" t="s">
+        <v>653</v>
+      </c>
+      <c r="I3" t="s">
+        <v>654</v>
+      </c>
+      <c r="J3" t="s">
+        <v>655</v>
+      </c>
+      <c r="K3" t="s">
+        <v>656</v>
+      </c>
+      <c r="L3" t="s">
+        <v>657</v>
+      </c>
+      <c r="M3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5"/>
+      <c r="E5" s="49" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="196.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="51" t="s">
+    <row r="6" spans="1:17" ht="196.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6"/>
+      <c r="E6" s="50" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="20"/>
-    </row>
-    <row r="8" spans="1:18" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="52" t="s">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:17" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8"/>
+      <c r="E8" s="51" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C9" s="44" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C9"/>
+      <c r="E9" s="43" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C10" s="44" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C10"/>
+      <c r="E10" s="43" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C11" s="44" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C11"/>
+      <c r="E11" s="43" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C12" s="44" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C12"/>
+      <c r="E12" s="43" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="47" t="s">
+    <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="C13"/>
+      <c r="E13" s="46" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C14" s="46"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C15" s="46" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C14"/>
+      <c r="E14" s="45"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C15"/>
+      <c r="E15" s="45" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="C16" s="45" t="s">
+    <row r="16" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+      <c r="C16"/>
+      <c r="E16" s="44" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C17" s="45" t="s">
+    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="C17"/>
+      <c r="E17" s="44" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="46" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18"/>
+      <c r="E18" s="45" t="s">
         <v>532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105" t="s">
+        <v>612</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="48" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="106" t="s">
+        <v>539</v>
+      </c>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106" t="s">
+        <v>647</v>
+      </c>
+      <c r="D24" s="107" t="s">
+        <v>591</v>
+      </c>
+      <c r="E24" s="44" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A24&amp;"'&gt;&lt;b&gt;"&amp;C24&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;A24&amp;"' name='"&amp;A24&amp;"'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='applicate_id'&gt;&lt;b&gt;Applicant Name&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='applicate_id' name='applicate_id'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="48" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="106" t="s">
+        <v>540</v>
+      </c>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106" t="s">
+        <v>648</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>590</v>
+      </c>
+      <c r="E25" s="65" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A25&amp;"'&gt;&lt;b&gt;"&amp;C25&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='"&amp;A25&amp;"' name='"&amp;A25&amp;"'  placeholder='Enter "&amp;C25&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='technical_evaluation_score'&gt;&lt;b&gt;Technical Evaluation Score&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='technical_evaluation_score' name='technical_evaluation_score'  placeholder='Enter Technical Evaluation Score'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="48" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="106" t="s">
+        <v>541</v>
+      </c>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106" t="s">
+        <v>649</v>
+      </c>
+      <c r="D26" s="108" t="s">
+        <v>590</v>
+      </c>
+      <c r="E26" s="65" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A26&amp;"'&gt;&lt;b&gt;"&amp;C26&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='"&amp;A26&amp;"' name='"&amp;A26&amp;"'  placeholder='Enter "&amp;C26&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='mne_evaluation'&gt;&lt;b&gt;M&amp;E Evaluation Score&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='mne_evaluation' name='mne_evaluation'  placeholder='Enter M&amp;E Evaluation Score'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="106" t="s">
+        <v>542</v>
+      </c>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106" t="s">
+        <v>659</v>
+      </c>
+      <c r="D27" s="108" t="s">
+        <v>590</v>
+      </c>
+      <c r="E27" s="65" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A27&amp;"'&gt;&lt;b&gt;"&amp;C27&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='"&amp;A27&amp;"' name='"&amp;A27&amp;"'  placeholder='Enter "&amp;C27&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='finance_evaluation'&gt;&lt;b&gt;Finance Evaluation Score&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='finance_evaluation' name='finance_evaluation'  placeholder='Enter Finance Evaluation Score'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="106" t="s">
+        <v>543</v>
+      </c>
+      <c r="B28" s="106"/>
+      <c r="C28" s="106" t="s">
+        <v>660</v>
+      </c>
+      <c r="D28" s="108" t="s">
+        <v>590</v>
+      </c>
+      <c r="E28" s="65" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A28&amp;"'&gt;&lt;b&gt;"&amp;C28&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='"&amp;A28&amp;"' name='"&amp;A28&amp;"'  placeholder='Enter "&amp;C28&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='other_evaluation'&gt;&lt;b&gt;Other Evaluation Score&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='other_evaluation' name='other_evaluation'  placeholder='Enter Other Evaluation Score'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="106" t="s">
+        <v>544</v>
+      </c>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106" t="s">
+        <v>652</v>
+      </c>
+      <c r="D29" s="111" t="s">
+        <v>590</v>
+      </c>
+      <c r="E29" s="47" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A29&amp;"'&gt;&lt;b&gt;"&amp;C29&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input readonly='true' type='input' class='form-control' id='"&amp;A29&amp;"' name='"&amp;A29&amp;"'  placeholder='Enter "&amp;C29&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='overall_score'&gt;&lt;b&gt;Overall score&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input readonly='true' type='input' class='form-control' id='overall_score' name='overall_score'  placeholder='Enter Overall score'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="106" t="s">
+        <v>545</v>
+      </c>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106" t="s">
+        <v>653</v>
+      </c>
+      <c r="D30" s="110" t="s">
+        <v>590</v>
+      </c>
+      <c r="E30" s="44" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A30&amp;"'&gt;&lt;b&gt;"&amp;C30&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='"&amp;A30&amp;"' name='"&amp;A30&amp;"'  placeholder='Enter "&amp;C30&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='technical_evaluation_attachment'&gt;&lt;b&gt;Technical Evaluation attachment&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='technical_evaluation_attachment' name='technical_evaluation_attachment'  placeholder='Enter Technical Evaluation attachment'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="106" t="s">
+        <v>546</v>
+      </c>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106" t="s">
+        <v>654</v>
+      </c>
+      <c r="D31" s="110" t="s">
+        <v>590</v>
+      </c>
+      <c r="E31" s="44" t="str">
+        <f t="shared" ref="E31:E33" si="0">"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A31&amp;"'&gt;&lt;b&gt;"&amp;C31&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='"&amp;A31&amp;"' name='"&amp;A31&amp;"'  placeholder='Enter "&amp;C31&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='mne_evaluation_attachment'&gt;&lt;b&gt;Monitoring and Evaluation Attachment&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='mne_evaluation_attachment' name='mne_evaluation_attachment'  placeholder='Enter Monitoring and Evaluation Attachment'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="106" t="s">
+        <v>547</v>
+      </c>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106" t="s">
+        <v>655</v>
+      </c>
+      <c r="D32" s="110" t="s">
+        <v>590</v>
+      </c>
+      <c r="E32" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='finance_evaluation_attachment'&gt;&lt;b&gt;Finance Evaluation attachment&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='finance_evaluation_attachment' name='finance_evaluation_attachment'  placeholder='Enter Finance Evaluation attachment'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="106" t="s">
+        <v>548</v>
+      </c>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106" t="s">
+        <v>656</v>
+      </c>
+      <c r="D33" s="110" t="s">
+        <v>590</v>
+      </c>
+      <c r="E33" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='other_evaluation_attachment'&gt;&lt;b&gt;Other Evaluation Attachments&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='other_evaluation_attachment' name='other_evaluation_attachment'  placeholder='Enter Other Evaluation Attachments'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="106" t="s">
+        <v>552</v>
+      </c>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106" t="s">
+        <v>657</v>
+      </c>
+      <c r="D34" t="s">
+        <v>591</v>
+      </c>
+      <c r="E34" s="44" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A34&amp;"'&gt;&lt;b&gt;"&amp;C34&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;A34&amp;"' name='"&amp;A34&amp;"'  &gt;
+&lt;option value=''&gt;Select Option&lt;/option&gt;
+&lt;option value='Yes'&gt;Yes&lt;/option&gt;
+&lt;option value='No'&gt;No&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='is_applicant_selected'&gt;&lt;b&gt;Is applicant selected?&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='is_applicant_selected' name='is_applicant_selected'  &gt;
+&lt;option value=''&gt;Select Option&lt;/option&gt;
+&lt;option value='Yes'&gt;Yes&lt;/option&gt;
+&lt;option value='No'&gt;No&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="106" t="s">
+        <v>553</v>
+      </c>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106" t="s">
+        <v>658</v>
+      </c>
+      <c r="D35" s="109" t="s">
+        <v>590</v>
+      </c>
+      <c r="E35" s="44" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A35&amp;"'&gt;&lt;b&gt;"&amp;C35&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='"&amp;A35&amp;"' name='"&amp;A35&amp;"'  placeholder='Enter "&amp;C35&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='post_evaluation_minutes'&gt;&lt;b&gt;Post evaluation Minutes Upload&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='post_evaluation_minutes' name='post_evaluation_minutes'  placeholder='Enter Post evaluation Minutes Upload'/&gt;
+&lt;/div&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -11471,54 +11916,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>555</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="D1" s="52" t="s">
         <v>556</v>
       </c>
-      <c r="D1" s="53" t="s">
-        <v>557</v>
-      </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="52" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>561</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>561</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -11532,48 +11977,48 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="77" t="s">
-        <v>578</v>
-      </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79"/>
+      <c r="B12" s="81" t="s">
+        <v>577</v>
+      </c>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="83"/>
       <c r="G12" s="20" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
       <c r="G13" s="18" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="80"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="82"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
       <c r="G14" s="18" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="80"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="82"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
       <c r="G15" s="18" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
       <c r="G16" s="18" t="s">
         <v>458</v>
       </c>
@@ -11584,28 +12029,28 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
       <c r="G18" s="33" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
       <c r="G19" s="33" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61"/>
       <c r="G20" s="33" t="s">
         <v>462</v>
       </c>
@@ -11631,14 +12076,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="55.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>480</v>
       </c>
       <c r="C1" s="29" t="s">
@@ -11649,7 +12094,7 @@
       <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>479</v>
       </c>
       <c r="C2" s="29">
@@ -11660,7 +12105,7 @@
       <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>476</v>
       </c>
       <c r="C3" s="29">
@@ -11671,7 +12116,7 @@
       <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>477</v>
       </c>
       <c r="C4" s="29">
@@ -11682,7 +12127,7 @@
       <c r="A5" s="29">
         <v>4</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>478</v>
       </c>
       <c r="C5" s="29">

--- a/web/database_design.xlsx
+++ b/web/database_design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="6240" tabRatio="957" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="6240" tabRatio="957" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="key input fields" sheetId="55" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="683">
   <si>
     <t>1.0 Grant Information</t>
   </si>
@@ -3014,16 +3014,10 @@
     <t>Award_amount</t>
   </si>
   <si>
-    <t>subaward_agreement_location</t>
-  </si>
-  <si>
     <t>subaward_agreement_filename</t>
   </si>
   <si>
     <t>subaward_budget_filename</t>
-  </si>
-  <si>
-    <t>subaward_budget_location</t>
   </si>
   <si>
     <t>status</t>
@@ -4962,9 +4956,6 @@
   </si>
   <si>
     <t>dsfsdjhgdsjfhsgdjhfj</t>
-  </si>
-  <si>
-    <t>sdhgfddsjs</t>
   </si>
   <si>
     <t>sub_recipient_id</t>
@@ -5273,6 +5264,81 @@
   </si>
   <si>
     <t>Other Evaluation Score</t>
+  </si>
+  <si>
+    <t>Record ID</t>
+  </si>
+  <si>
+    <t>Applicant</t>
+  </si>
+  <si>
+    <t>Overall Risk Rating</t>
+  </si>
+  <si>
+    <t>Pre-Award Assessment Attachment</t>
+  </si>
+  <si>
+    <t>Recommendation</t>
+  </si>
+  <si>
+    <t>Sub recipient Id</t>
+  </si>
+  <si>
+    <t>Sub Recipient Name</t>
+  </si>
+  <si>
+    <t>SubAward Number</t>
+  </si>
+  <si>
+    <t>Sub Award Type</t>
+  </si>
+  <si>
+    <t>Sub Award Type Other</t>
+  </si>
+  <si>
+    <t>Sub Award Start Date</t>
+  </si>
+  <si>
+    <t>Reporting Currency</t>
+  </si>
+  <si>
+    <t>Reporting Frequency</t>
+  </si>
+  <si>
+    <t>Applicable Indirect Cost</t>
+  </si>
+  <si>
+    <t>Pin number</t>
+  </si>
+  <si>
+    <t>Entity Type</t>
+  </si>
+  <si>
+    <t>Other Entity Type</t>
+  </si>
+  <si>
+    <t>Sub Award Agreement File</t>
+  </si>
+  <si>
+    <t>Sub Award Budget</t>
+  </si>
+  <si>
+    <t>Sub Recipient Status</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>Corrections</t>
+  </si>
+  <si>
+    <t>add Type of award field on grants</t>
+  </si>
+  <si>
+    <t>Options are: Fixed Amount Award/cooperative  Agreement/Contract/Assistance/Task order/Other – specify</t>
   </si>
 </sst>
 </file>
@@ -5407,7 +5473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -5625,11 +5691,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
@@ -5784,7 +5859,53 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5823,54 +5944,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6161,34 +6277,34 @@
   <sheetData>
     <row r="6" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="67" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B8" s="67" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B11" s="67" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B14" s="67" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -6216,7 +6332,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>375</v>
@@ -6224,10 +6340,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -6235,10 +6351,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -6246,10 +6362,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -6257,10 +6373,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -6268,10 +6384,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -6279,10 +6395,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -6290,10 +6406,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -6301,10 +6417,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -6312,10 +6428,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -6323,10 +6439,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -6334,10 +6450,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -6345,10 +6461,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -6356,10 +6472,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -6367,10 +6483,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -6378,10 +6494,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -6389,10 +6505,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -6408,18 +6524,20 @@
   <sheetPr codeName="Sheet2">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.140625" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
@@ -6429,10 +6547,11 @@
     <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.42578125" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -6476,22 +6595,16 @@
         <v>16</v>
       </c>
       <c r="O1" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="P1" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="P1" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="S1" s="24" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q1" s="24" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -6538,19 +6651,13 @@
         <v>329</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q2" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="R2" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q2" s="24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>238</v>
       </c>
@@ -6566,35 +6673,81 @@
       <c r="L3" t="s">
         <v>244</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="Q3" s="25"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>666</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>667</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>668</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>668</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>669</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>670</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>671</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>674</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>583</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="110" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S4" s="25" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="90" t="s">
-        <v>388</v>
-      </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>366</v>
       </c>
@@ -6602,60 +6755,493 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>376</v>
       </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>663</v>
+      </c>
+      <c r="E22" s="117" t="s">
+        <v>587</v>
+      </c>
+      <c r="F22" s="116" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B23" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="E23" s="117" t="s">
+        <v>588</v>
+      </c>
+      <c r="F23" s="44" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B23&amp;"'&gt;&lt;b&gt;"&amp;D23&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;B23&amp;"' name='"&amp;B23&amp;"'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='subrec_name'&gt;&lt;b&gt;Sub Recipient Name&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='subrec_name' name='subrec_name'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B24" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>665</v>
+      </c>
+      <c r="E24" s="117" t="s">
+        <v>587</v>
+      </c>
+      <c r="F24" s="65" t="str">
+        <f t="shared" ref="F24" si="0">"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B24&amp;"'&gt;&lt;b&gt;"&amp;D24&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='"&amp;B24&amp;"' name='"&amp;B24&amp;"'  placeholder='Enter "&amp;D24&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='subaward_number'&gt;&lt;b&gt;SubAward Number&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='subaward_number' name='subaward_number'  placeholder='Enter SubAward Number'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="117" t="s">
+        <v>666</v>
+      </c>
+      <c r="E25" s="117" t="s">
+        <v>588</v>
+      </c>
+      <c r="F25" s="44" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B25&amp;"'&gt;&lt;b&gt;"&amp;D25&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;B25&amp;"' name='"&amp;B25&amp;"'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='subaward_type'&gt;&lt;b&gt;Sub Award Type&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='subaward_type' name='subaward_type'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B26" s="80" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="D26" s="117" t="s">
+        <v>667</v>
+      </c>
+      <c r="E26" s="117" t="s">
+        <v>587</v>
+      </c>
+      <c r="F26" s="65" t="str">
+        <f t="shared" ref="F26" si="1">"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B26&amp;"'&gt;&lt;b&gt;"&amp;D26&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='"&amp;B26&amp;"' name='"&amp;B26&amp;"'  placeholder='Enter "&amp;D26&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='subaward_type_other'&gt;&lt;b&gt;Sub Award Type Other&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='subaward_type_other' name='subaward_type_other'  placeholder='Enter Sub Award Type Other'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="B27" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="118">
+        <v>44564</v>
+      </c>
+      <c r="D27" s="117" t="s">
+        <v>668</v>
+      </c>
+      <c r="E27" s="117" t="s">
+        <v>610</v>
+      </c>
+      <c r="F27" s="65" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B27&amp;"'&gt;&lt;b&gt;"&amp;D27&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control tarehe' id='"&amp;B27&amp;"' name='"&amp;B27&amp;"'  placeholder='Enter "&amp;D27&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='subaward_startdate'&gt;&lt;b&gt;Sub Award Start Date&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control tarehe' id='subaward_startdate' name='subaward_startdate'  placeholder='Enter Sub Award Start Date'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="B28" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="118">
+        <v>46111</v>
+      </c>
+      <c r="D28" s="117" t="s">
+        <v>668</v>
+      </c>
+      <c r="E28" s="117" t="s">
+        <v>610</v>
+      </c>
+      <c r="F28" s="65" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B28&amp;"'&gt;&lt;b&gt;"&amp;D28&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control tarehe' id='"&amp;B28&amp;"' name='"&amp;B28&amp;"'  placeholder='Enter "&amp;D28&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='subaward_enddate'&gt;&lt;b&gt;Sub Award Start Date&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control tarehe' id='subaward_enddate' name='subaward_enddate'  placeholder='Enter Sub Award Start Date'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="117" t="s">
+        <v>669</v>
+      </c>
+      <c r="E29" s="117" t="s">
+        <v>588</v>
+      </c>
+      <c r="F29" s="44" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B29&amp;"'&gt;&lt;b&gt;"&amp;D29&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;B29&amp;"' name='"&amp;B29&amp;"'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='reportingcurrency'&gt;&lt;b&gt;Reporting Currency&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='reportingcurrency' name='reportingcurrency'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30" s="117" t="s">
+        <v>670</v>
+      </c>
+      <c r="E30" s="117" t="s">
+        <v>588</v>
+      </c>
+      <c r="F30" s="44" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B30&amp;"'&gt;&lt;b&gt;"&amp;D30&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;B30&amp;"' name='"&amp;B30&amp;"'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='reportingfrequency'&gt;&lt;b&gt;Reporting Frequency&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='reportingfrequency' name='reportingfrequency'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="119" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="117" t="s">
+        <v>671</v>
+      </c>
+      <c r="E31" s="117" t="s">
+        <v>588</v>
+      </c>
+      <c r="F31" s="44" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B31&amp;"'&gt;&lt;b&gt;"&amp;D31&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;B31&amp;"' name='"&amp;B31&amp;"'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='applicable_indirectcost'&gt;&lt;b&gt;Applicable Indirect Cost&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='applicable_indirectcost' name='applicable_indirectcost'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B32" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="117" t="s">
+        <v>673</v>
+      </c>
+      <c r="E32" s="117" t="s">
+        <v>588</v>
+      </c>
+      <c r="F32" s="44" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B32&amp;"'&gt;&lt;b&gt;"&amp;D32&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;B32&amp;"' name='"&amp;B32&amp;"'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='entity_type'&gt;&lt;b&gt;Entity Type&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='entity_type' name='entity_type'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="D33" s="117" t="s">
+        <v>674</v>
+      </c>
+      <c r="E33" s="117" t="s">
+        <v>587</v>
+      </c>
+      <c r="F33" s="65" t="str">
+        <f t="shared" ref="F33" si="2">"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B33&amp;"'&gt;&lt;b&gt;"&amp;D33&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='"&amp;B33&amp;"' name='"&amp;B33&amp;"'  placeholder='Enter "&amp;D33&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='entity_type_other'&gt;&lt;b&gt;Other Entity Type&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='entity_type_other' name='entity_type_other'  placeholder='Enter Other Entity Type'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B34" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="D34" s="117" t="s">
+        <v>583</v>
+      </c>
+      <c r="E34" s="117" t="s">
+        <v>588</v>
+      </c>
+      <c r="F34" s="44" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B34&amp;"'&gt;&lt;b&gt;"&amp;D34&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;B34&amp;"' name='"&amp;B34&amp;"'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='costshare_obligation'&gt;&lt;b&gt;Cost Share Obligation&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='costshare_obligation' name='costshare_obligation'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B35" s="120" t="s">
+        <v>380</v>
+      </c>
+      <c r="C35" s="120" t="s">
+        <v>329</v>
+      </c>
+      <c r="D35" s="117" t="s">
+        <v>675</v>
+      </c>
+      <c r="E35" s="117" t="s">
+        <v>678</v>
+      </c>
+      <c r="F35" s="44" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B35&amp;"'&gt;&lt;b&gt;"&amp;D35&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='"&amp;B35&amp;"' name='"&amp;B35&amp;"'  placeholder='Enter "&amp;D35&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='subaward_agreement_filename'&gt;&lt;b&gt;Sub Award Agreement File&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='subaward_agreement_filename' name='subaward_agreement_filename'  placeholder='Enter Sub Award Agreement File'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B36" s="120" t="s">
+        <v>381</v>
+      </c>
+      <c r="C36" s="120" t="s">
+        <v>329</v>
+      </c>
+      <c r="D36" s="62" t="s">
+        <v>676</v>
+      </c>
+      <c r="E36" s="117" t="s">
+        <v>678</v>
+      </c>
+      <c r="F36" s="44" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B36&amp;"'&gt;&lt;b&gt;"&amp;D36&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='"&amp;B36&amp;"' name='"&amp;B36&amp;"'  placeholder='Enter "&amp;D36&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='subaward_budget_filename'&gt;&lt;b&gt;Sub Award Budget&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='subaward_budget_filename' name='subaward_budget_filename'  placeholder='Enter Sub Award Budget'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B37" s="121" t="s">
+        <v>410</v>
+      </c>
+      <c r="C37" s="121" t="s">
+        <v>383</v>
+      </c>
+      <c r="D37" s="120" t="s">
+        <v>677</v>
+      </c>
+      <c r="E37" s="117" t="s">
+        <v>588</v>
+      </c>
+      <c r="F37" s="44" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B37&amp;"'&gt;&lt;b&gt;"&amp;D37&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;B37&amp;"' name='"&amp;B37&amp;"'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='subrecipient_status'&gt;&lt;b&gt;Sub Recipient Status&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='subrecipient_status' name='subrecipient_status'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B6:F6"/>
   </mergeCells>
+  <conditionalFormatting sqref="E22:E37">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="select">
+      <formula>NOT(ISERROR(SEARCH("select",E22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6681,7 +7267,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>375</v>
@@ -6689,10 +7275,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -6700,10 +7286,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -6711,10 +7297,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -8051,7 +8637,7 @@
         <v>261</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>262</v>
@@ -8081,7 +8667,7 @@
         <v>271</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="195" x14ac:dyDescent="0.25">
@@ -8104,7 +8690,7 @@
         <v>278</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>277</v>
@@ -8134,7 +8720,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -8245,7 +8831,7 @@
         <v>259</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>260</v>
@@ -8299,7 +8885,7 @@
         <v>280</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>279</v>
@@ -8404,10 +8990,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8465,13 +9051,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E2" s="4">
         <v>84478</v>
@@ -8493,34 +9079,34 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E3" t="s">
         <v>578</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>579</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>580</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>581</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>582</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>583</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>584</v>
-      </c>
-      <c r="I3" t="s">
-        <v>585</v>
-      </c>
-      <c r="J3" t="s">
-        <v>586</v>
-      </c>
-      <c r="K3" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8579,10 +9165,10 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -8590,13 +9176,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E17" s="65" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -8617,10 +9203,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E18" s="65" t="str">
         <f t="shared" ref="E18:E25" si="0">"&lt;div class='form-group col-md-4'&gt;
@@ -8641,10 +9227,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E19" s="65" t="str">
         <f t="shared" si="0"/>
@@ -8662,10 +9248,10 @@
         <v>84478</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E20" s="65" t="str">
         <f t="shared" si="0"/>
@@ -8683,10 +9269,10 @@
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E21" s="65" t="str">
         <f t="shared" si="0"/>
@@ -8704,10 +9290,10 @@
         <v>44317</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E22" s="65" t="str">
         <f t="shared" si="0"/>
@@ -8725,10 +9311,10 @@
         <v>46142</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E23" s="65" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -8749,10 +9335,10 @@
         <v>46142</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E24" s="65" t="str">
         <f t="shared" si="0"/>
@@ -8768,10 +9354,10 @@
       </c>
       <c r="B25" s="63"/>
       <c r="C25" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E25" s="65" t="str">
         <f t="shared" si="0"/>
@@ -8787,7 +9373,7 @@
       </c>
       <c r="B26" s="63"/>
       <c r="C26" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="65" t="str">
@@ -8799,6 +9385,22 @@
 &lt;label for='grant_amount'&gt;&lt;b&gt;Grant Amount&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='grant_amount' name='grant_amount'  placeholder='Enter Grant Amount'/&gt;
 &lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>681</v>
+      </c>
+      <c r="C33" t="s">
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -8865,7 +9467,7 @@
         <v>33</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>302</v>
@@ -8883,31 +9485,31 @@
         <v>305</v>
       </c>
       <c r="I1" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="O1" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="N1" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>398</v>
-      </c>
       <c r="P1" s="31" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="R1" s="29" t="s">
         <v>268</v>
@@ -8924,19 +9526,19 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>259</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>260</v>
@@ -8957,22 +9559,22 @@
         <v>318</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="R2" s="14">
         <v>44965.416701388887</v>
@@ -8981,13 +9583,13 @@
         <v>44965.416701388887</v>
       </c>
       <c r="T2" s="29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U2" s="29">
         <v>1</v>
       </c>
       <c r="AA2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AF2" s="23" t="s">
         <v>329</v>
@@ -9013,22 +9615,22 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>296</v>
@@ -9056,7 +9658,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>300</v>
@@ -9064,7 +9666,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>301</v>
@@ -9075,17 +9677,17 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G13" s="23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G14" s="23" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G15" s="23" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -9093,22 +9695,22 @@
         <v>308</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="23" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" s="23" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -9165,7 +9767,7 @@
         <v>259</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>260</v>
@@ -9207,7 +9809,7 @@
         <v>271</v>
       </c>
       <c r="T1" s="37" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -9449,29 +10051,29 @@
     </row>
     <row r="3" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="D3" s="26" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -9484,7 +10086,7 @@
         <v>332</v>
       </c>
       <c r="D8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -9494,21 +10096,21 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="40" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>516</v>
-      </c>
-      <c r="F10" s="91" t="s">
+        <v>514</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>340</v>
       </c>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="18" t="s">
@@ -9519,31 +10121,31 @@
       <c r="C12" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="111" t="s">
         <v>340</v>
       </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="111" t="s">
         <v>346</v>
       </c>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9587,40 +10189,40 @@
         <v>257</v>
       </c>
       <c r="B1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E1" t="s">
         <v>563</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>564</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>565</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>566</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>567</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>568</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>569</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>570</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>571</v>
-      </c>
-      <c r="K1" t="s">
-        <v>572</v>
-      </c>
-      <c r="L1" t="s">
-        <v>573</v>
-      </c>
-      <c r="M1" t="s">
-        <v>574</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>268</v>
@@ -9637,43 +10239,43 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="I2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="J2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="L2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="N2" s="14">
         <v>44965.416701388887</v>
@@ -9690,43 +10292,43 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="J3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="K3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="L3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="M3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="N3" s="14">
         <v>44965.416701388887</v>
@@ -9749,67 +10351,67 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -9824,8 +10426,8 @@
   </sheetPr>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9908,7 +10510,7 @@
         <v>371</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>330</v>
@@ -9929,34 +10531,34 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
       <c r="B3" s="57" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C3" s="57" t="s">
+        <v>599</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>600</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="F3" s="68" t="s">
         <v>602</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="G3" s="70" t="s">
         <v>603</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="H3" s="70" t="s">
         <v>604</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="I3" s="70" t="s">
         <v>605</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="J3" s="70" t="s">
+        <v>607</v>
+      </c>
+      <c r="K3" s="70" t="s">
         <v>606</v>
-      </c>
-      <c r="H3" s="70" t="s">
-        <v>607</v>
-      </c>
-      <c r="I3" s="70" t="s">
-        <v>608</v>
-      </c>
-      <c r="J3" s="70" t="s">
-        <v>610</v>
-      </c>
-      <c r="K3" s="70" t="s">
-        <v>609</v>
       </c>
       <c r="L3" s="69"/>
       <c r="M3" s="69"/>
@@ -10052,7 +10654,7 @@
     </row>
     <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="42" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>356</v>
@@ -10137,10 +10739,10 @@
       </c>
       <c r="B34" s="38"/>
       <c r="C34" s="38" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -10151,10 +10753,10 @@
         <v>361</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D35" s="71" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E35" s="65" t="str">
         <f t="shared" ref="E35" si="0">"&lt;div class='form-group col-md-4'&gt;
@@ -10173,10 +10775,10 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D36" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E36" s="65" t="str">
         <f t="shared" ref="E36" si="1">"&lt;div class='form-group col-md-4'&gt;
@@ -10195,10 +10797,10 @@
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D37" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E37" s="65" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -10217,10 +10819,10 @@
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D38" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E38" s="65" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -10241,10 +10843,10 @@
         <v>367</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D39" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -10253,10 +10855,10 @@
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="27" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D40" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E40" s="65" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -10275,10 +10877,10 @@
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="27" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D41" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E41" s="65" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -10299,10 +10901,10 @@
         <v>371</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E42" s="65" t="str">
         <f t="shared" ref="E42:E43" si="2">"&lt;div class='form-group col-md-4'&gt;
@@ -10320,13 +10922,13 @@
         <v>319</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D43" s="72" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E43" s="65" t="str">
         <f t="shared" si="2"/>
@@ -10344,10 +10946,10 @@
         <v>330</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D44" s="72" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E44" s="65" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -10427,8 +11029,8 @@
   </sheetPr>
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10463,70 +11065,70 @@
         <v>257</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C1" s="75" t="s">
+        <v>435</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1" s="76" t="s">
         <v>437</v>
-      </c>
-      <c r="D1" s="102" t="s">
-        <v>438</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>439</v>
       </c>
       <c r="F1" s="77" t="s">
         <v>371</v>
       </c>
       <c r="G1" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>439</v>
+      </c>
+      <c r="I1" s="76" t="s">
         <v>440</v>
       </c>
-      <c r="H1" s="76" t="s">
-        <v>441</v>
-      </c>
-      <c r="I1" s="76" t="s">
+      <c r="J1" s="74" t="s">
+        <v>536</v>
+      </c>
+      <c r="K1" s="74" t="s">
         <v>442</v>
       </c>
-      <c r="J1" s="74" t="s">
-        <v>538</v>
-      </c>
-      <c r="K1" s="74" t="s">
+      <c r="L1" s="74" t="s">
+        <v>443</v>
+      </c>
+      <c r="M1" s="76" t="s">
         <v>444</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="N1" s="74" t="s">
         <v>445</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="O1" s="78" t="s">
         <v>446</v>
       </c>
-      <c r="N1" s="74" t="s">
+      <c r="P1" s="76" t="s">
         <v>447</v>
       </c>
-      <c r="O1" s="78" t="s">
+      <c r="Q1" s="78" t="s">
+        <v>627</v>
+      </c>
+      <c r="R1" s="76" t="s">
         <v>448</v>
       </c>
-      <c r="P1" s="76" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q1" s="78" t="s">
-        <v>630</v>
-      </c>
-      <c r="R1" s="76" t="s">
-        <v>450</v>
-      </c>
       <c r="S1" s="75" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="T1" s="79" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>268</v>
@@ -10554,44 +11156,44 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="65" t="s">
+        <v>531</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>537</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="27" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>329</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="V2" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>561</v>
       </c>
       <c r="X2" s="14">
         <v>44965.416701388887</v>
@@ -10609,59 +11211,59 @@
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>613</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="F3" s="65" t="s">
         <v>615</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="G3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="I3" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="J3" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="N3" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>625</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
@@ -10673,12 +11275,12 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G8" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G9" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -10686,29 +11288,29 @@
         <v>9</v>
       </c>
       <c r="C10" s="38"/>
-      <c r="D10" s="103" t="s">
-        <v>612</v>
+      <c r="D10" s="90" t="s">
+        <v>609</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="15" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="B11" s="93" t="s">
-        <v>518</v>
+      <c r="B11" s="81" t="s">
+        <v>516</v>
       </c>
       <c r="C11" s="45"/>
-      <c r="D11" s="104" t="s">
-        <v>631</v>
-      </c>
-      <c r="E11" s="94" t="s">
-        <v>591</v>
+      <c r="D11" s="91" t="s">
+        <v>628</v>
+      </c>
+      <c r="E11" s="82" t="s">
+        <v>588</v>
       </c>
       <c r="F11" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -10725,21 +11327,21 @@
 &lt;/div&gt;</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B12" s="45" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C12" s="45" t="s">
         <v>309</v>
       </c>
-      <c r="D12" s="104" t="s">
-        <v>615</v>
-      </c>
-      <c r="E12" s="95" t="s">
-        <v>590</v>
+      <c r="D12" s="91" t="s">
+        <v>612</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>587</v>
       </c>
       <c r="F12" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -10752,21 +11354,21 @@
 &lt;/div&gt;</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="15" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="B13" s="93" t="s">
-        <v>438</v>
+      <c r="B13" s="81" t="s">
+        <v>436</v>
       </c>
       <c r="C13" s="45">
         <v>2022</v>
       </c>
-      <c r="D13" s="104" t="s">
-        <v>616</v>
-      </c>
-      <c r="E13" s="94" t="s">
-        <v>591</v>
+      <c r="D13" s="91" t="s">
+        <v>613</v>
+      </c>
+      <c r="E13" s="82" t="s">
+        <v>588</v>
       </c>
       <c r="F13" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -10783,19 +11385,19 @@
 &lt;/div&gt;</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B14" s="96" t="s">
-        <v>439</v>
+      <c r="B14" s="84" t="s">
+        <v>437</v>
       </c>
       <c r="C14" s="45"/>
-      <c r="D14" s="104" t="s">
-        <v>617</v>
-      </c>
-      <c r="E14" s="94" t="s">
-        <v>590</v>
+      <c r="D14" s="91" t="s">
+        <v>614</v>
+      </c>
+      <c r="E14" s="82" t="s">
+        <v>587</v>
       </c>
       <c r="F14" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -10807,22 +11409,22 @@
 &lt;input required='true' type='input' class='form-control' id='postal_address' name='postal_address'  placeholder='Enter Postal Address'/&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G14" s="97" t="s">
-        <v>425</v>
+      <c r="G14" s="85" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="84" t="s">
         <v>371</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>533</v>
-      </c>
-      <c r="D15" s="104" t="s">
-        <v>618</v>
-      </c>
-      <c r="E15" s="94" t="s">
-        <v>590</v>
+        <v>531</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>615</v>
+      </c>
+      <c r="E15" s="82" t="s">
+        <v>587</v>
       </c>
       <c r="F15" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -10835,24 +11437,24 @@
 &lt;/div&gt;</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="I15" s="80" t="s">
-        <v>443</v>
+        <v>424</v>
+      </c>
+      <c r="I15" s="99" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B16" s="96" t="s">
-        <v>440</v>
+      <c r="B16" s="84" t="s">
+        <v>438</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>534</v>
-      </c>
-      <c r="D16" s="104" t="s">
-        <v>619</v>
-      </c>
-      <c r="E16" s="94" t="s">
-        <v>590</v>
+        <v>532</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>616</v>
+      </c>
+      <c r="E16" s="82" t="s">
+        <v>587</v>
       </c>
       <c r="F16" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -10865,22 +11467,22 @@
 &lt;/div&gt;</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="I16" s="80"/>
+        <v>425</v>
+      </c>
+      <c r="I16" s="99"/>
     </row>
     <row r="17" spans="2:11" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B17" s="96" t="s">
-        <v>441</v>
+      <c r="B17" s="84" t="s">
+        <v>439</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>535</v>
-      </c>
-      <c r="D17" s="104" t="s">
-        <v>620</v>
-      </c>
-      <c r="E17" s="94" t="s">
-        <v>590</v>
+        <v>533</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>617</v>
+      </c>
+      <c r="E17" s="82" t="s">
+        <v>587</v>
       </c>
       <c r="F17" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -10893,21 +11495,21 @@
 &lt;/div&gt;</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B18" s="96" t="s">
-        <v>442</v>
+      <c r="B18" s="84" t="s">
+        <v>440</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>536</v>
-      </c>
-      <c r="D18" s="104" t="s">
-        <v>621</v>
-      </c>
-      <c r="E18" s="94" t="s">
-        <v>590</v>
+        <v>534</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>618</v>
+      </c>
+      <c r="E18" s="82" t="s">
+        <v>587</v>
       </c>
       <c r="F18" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -10920,21 +11522,21 @@
 &lt;/div&gt;</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="15" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="B19" s="93" t="s">
-        <v>538</v>
+      <c r="B19" s="81" t="s">
+        <v>536</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>537</v>
-      </c>
-      <c r="D19" s="104" t="s">
-        <v>629</v>
-      </c>
-      <c r="E19" s="94" t="s">
-        <v>591</v>
+        <v>535</v>
+      </c>
+      <c r="D19" s="91" t="s">
+        <v>626</v>
+      </c>
+      <c r="E19" s="82" t="s">
+        <v>588</v>
       </c>
       <c r="F19" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -10954,20 +11556,20 @@
 &lt;/select&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G19" s="97" t="s">
-        <v>430</v>
+      <c r="G19" s="85" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="2:11" s="15" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="B20" s="93" t="s">
-        <v>444</v>
+      <c r="B20" s="81" t="s">
+        <v>442</v>
       </c>
       <c r="C20" s="45"/>
-      <c r="D20" s="104" t="s">
-        <v>622</v>
-      </c>
-      <c r="E20" s="94" t="s">
-        <v>591</v>
+      <c r="D20" s="91" t="s">
+        <v>619</v>
+      </c>
+      <c r="E20" s="82" t="s">
+        <v>588</v>
       </c>
       <c r="F20" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -10991,20 +11593,20 @@
 &lt;/select&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G20" s="97" t="s">
-        <v>431</v>
+      <c r="G20" s="85" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="2:11" s="15" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="93" t="s">
-        <v>445</v>
+      <c r="B21" s="81" t="s">
+        <v>443</v>
       </c>
       <c r="C21" s="45"/>
-      <c r="D21" s="104" t="s">
-        <v>633</v>
-      </c>
-      <c r="E21" s="94" t="s">
-        <v>591</v>
+      <c r="D21" s="91" t="s">
+        <v>630</v>
+      </c>
+      <c r="E21" s="82" t="s">
+        <v>588</v>
       </c>
       <c r="F21" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -11024,25 +11626,25 @@
 &lt;/select&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G21" s="97" t="s">
-        <v>432</v>
-      </c>
-      <c r="I21" s="98" t="s">
-        <v>452</v>
-      </c>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
+      <c r="G21" s="85" t="s">
+        <v>430</v>
+      </c>
+      <c r="I21" s="100" t="s">
+        <v>450</v>
+      </c>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
     </row>
     <row r="22" spans="2:11" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B22" s="96" t="s">
-        <v>446</v>
+      <c r="B22" s="84" t="s">
+        <v>444</v>
       </c>
       <c r="C22" s="45"/>
-      <c r="D22" s="104" t="s">
-        <v>624</v>
-      </c>
-      <c r="E22" s="94" t="s">
-        <v>590</v>
+      <c r="D22" s="91" t="s">
+        <v>621</v>
+      </c>
+      <c r="E22" s="82" t="s">
+        <v>587</v>
       </c>
       <c r="F22" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -11054,25 +11656,25 @@
 &lt;input required='true' type='input' class='form-control' id='pin_number' name='pin_number'  placeholder='Enter Pin Number'/&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G22" s="97" t="s">
-        <v>433</v>
-      </c>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
+      <c r="G22" s="85" t="s">
+        <v>431</v>
+      </c>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
     </row>
     <row r="23" spans="2:11" s="15" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="B23" s="93" t="s">
-        <v>447</v>
-      </c>
-      <c r="C23" s="96" t="s">
-        <v>448</v>
-      </c>
-      <c r="D23" s="104" t="s">
-        <v>634</v>
-      </c>
-      <c r="E23" s="94" t="s">
-        <v>591</v>
+      <c r="B23" s="81" t="s">
+        <v>445</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>446</v>
+      </c>
+      <c r="D23" s="91" t="s">
+        <v>631</v>
+      </c>
+      <c r="E23" s="82" t="s">
+        <v>588</v>
       </c>
       <c r="F23" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -11092,20 +11694,20 @@
 &lt;/select&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G23" s="97" t="s">
-        <v>434</v>
+      <c r="G23" s="85" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="2:11" s="15" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="B24" s="99" t="s">
-        <v>448</v>
+      <c r="B24" s="86" t="s">
+        <v>446</v>
       </c>
       <c r="C24" s="45"/>
-      <c r="D24" s="104" t="s">
-        <v>625</v>
-      </c>
-      <c r="E24" s="95" t="s">
-        <v>614</v>
+      <c r="D24" s="91" t="s">
+        <v>622</v>
+      </c>
+      <c r="E24" s="83" t="s">
+        <v>611</v>
       </c>
       <c r="F24" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -11117,20 +11719,20 @@
 &lt;input required='true' type='file' class='form-control' id='tax_compliant_certificate_file' name='tax_compliant_certificate_file'  placeholder='Enter Upload Tax Compliant Certificate'/&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G24" s="97" t="s">
-        <v>435</v>
+      <c r="G24" s="85" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="2:11" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B25" s="96" t="s">
-        <v>449</v>
+      <c r="B25" s="84" t="s">
+        <v>447</v>
       </c>
       <c r="C25" s="45"/>
-      <c r="D25" s="104" t="s">
-        <v>640</v>
-      </c>
-      <c r="E25" s="94" t="s">
-        <v>590</v>
+      <c r="D25" s="91" t="s">
+        <v>637</v>
+      </c>
+      <c r="E25" s="82" t="s">
+        <v>587</v>
       </c>
       <c r="F25" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -11142,21 +11744,21 @@
 &lt;input required='true' type='input' class='form-control' id='universal_entity_number' name='universal_entity_number'  placeholder='Enter Universal Entity Number'/&gt;
 &lt;/div&gt;</v>
       </c>
-      <c r="G25" s="97"/>
+      <c r="G25" s="85"/>
       <c r="H25" s="15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="2:11" s="15" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="B26" s="99" t="s">
-        <v>630</v>
+      <c r="B26" s="86" t="s">
+        <v>627</v>
       </c>
       <c r="C26" s="45"/>
-      <c r="D26" s="104" t="s">
-        <v>627</v>
-      </c>
-      <c r="E26" s="95" t="s">
-        <v>614</v>
+      <c r="D26" s="91" t="s">
+        <v>624</v>
+      </c>
+      <c r="E26" s="83" t="s">
+        <v>611</v>
       </c>
       <c r="F26" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -11169,21 +11771,21 @@
 &lt;/div&gt;</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="2:11" s="15" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="B27" s="96" t="s">
-        <v>450</v>
+      <c r="B27" s="84" t="s">
+        <v>448</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>451</v>
-      </c>
-      <c r="D27" s="104" t="s">
-        <v>645</v>
-      </c>
-      <c r="E27" s="100" t="s">
-        <v>591</v>
+        <v>449</v>
+      </c>
+      <c r="D27" s="91" t="s">
+        <v>642</v>
+      </c>
+      <c r="E27" s="87" t="s">
+        <v>588</v>
       </c>
       <c r="F27" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -11206,16 +11808,16 @@
     </row>
     <row r="28" spans="2:11" s="15" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="45" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>329</v>
       </c>
-      <c r="D28" s="104" t="s">
-        <v>644</v>
-      </c>
-      <c r="E28" s="95" t="s">
-        <v>614</v>
+      <c r="D28" s="91" t="s">
+        <v>641</v>
+      </c>
+      <c r="E28" s="83" t="s">
+        <v>611</v>
       </c>
       <c r="F28" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -11229,15 +11831,15 @@
       </c>
     </row>
     <row r="29" spans="2:11" s="15" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="B29" s="101" t="s">
-        <v>642</v>
+      <c r="B29" s="88" t="s">
+        <v>639</v>
       </c>
       <c r="C29" s="45"/>
-      <c r="D29" s="104" t="s">
-        <v>643</v>
-      </c>
-      <c r="E29" s="95" t="s">
-        <v>614</v>
+      <c r="D29" s="91" t="s">
+        <v>640</v>
+      </c>
+      <c r="E29" s="83" t="s">
+        <v>611</v>
       </c>
       <c r="F29" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -11281,7 +11883,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>375</v>
@@ -11303,7 +11905,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -11314,7 +11916,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -11325,7 +11927,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -11347,7 +11949,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -11361,12 +11963,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="9"/>
+    <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11393,40 +11995,40 @@
         <v>257</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>538</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="E1" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>548</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>268</v>
@@ -11464,13 +12066,13 @@
         <v>330</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>551</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -11490,53 +12092,53 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>645</v>
+      </c>
+      <c r="D3" t="s">
+        <v>646</v>
+      </c>
+      <c r="E3" t="s">
         <v>647</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="F3" t="s">
         <v>648</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>649</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>650</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>651</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>652</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>653</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>654</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>655</v>
-      </c>
-      <c r="K3" t="s">
-        <v>656</v>
-      </c>
-      <c r="L3" t="s">
-        <v>657</v>
-      </c>
-      <c r="M3" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5"/>
       <c r="E5" s="49" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="196.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6"/>
       <c r="E6" s="50" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11546,37 +12148,37 @@
     <row r="8" spans="1:17" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8"/>
       <c r="E8" s="51" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9"/>
       <c r="E9" s="43" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10"/>
       <c r="E10" s="43" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11"/>
       <c r="E11" s="43" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12"/>
       <c r="E12" s="43" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13"/>
       <c r="E13" s="46" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -11586,49 +12188,49 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C15"/>
       <c r="E15" s="45" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="180" x14ac:dyDescent="0.25">
       <c r="C16"/>
       <c r="E16" s="44" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17"/>
       <c r="E17" s="44" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18"/>
       <c r="E18" s="45" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="105" t="s">
+      <c r="A23" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105" t="s">
-        <v>612</v>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92" t="s">
+        <v>609</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="48" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="106" t="s">
-        <v>539</v>
-      </c>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106" t="s">
-        <v>647</v>
-      </c>
-      <c r="D24" s="107" t="s">
-        <v>591</v>
+      <c r="A24" s="93" t="s">
+        <v>537</v>
+      </c>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93" t="s">
+        <v>644</v>
+      </c>
+      <c r="D24" s="94" t="s">
+        <v>588</v>
       </c>
       <c r="E24" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -11646,15 +12248,15 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="48" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="106" t="s">
-        <v>540</v>
-      </c>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106" t="s">
-        <v>648</v>
+      <c r="A25" s="93" t="s">
+        <v>538</v>
+      </c>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93" t="s">
+        <v>645</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E25" s="65" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -11668,15 +12270,15 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="48" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="106" t="s">
-        <v>541</v>
-      </c>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106" t="s">
-        <v>649</v>
-      </c>
-      <c r="D26" s="108" t="s">
-        <v>590</v>
+      <c r="A26" s="93" t="s">
+        <v>539</v>
+      </c>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93" t="s">
+        <v>646</v>
+      </c>
+      <c r="D26" s="95" t="s">
+        <v>587</v>
       </c>
       <c r="E26" s="65" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -11690,15 +12292,15 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="106" t="s">
-        <v>542</v>
-      </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106" t="s">
-        <v>659</v>
-      </c>
-      <c r="D27" s="108" t="s">
-        <v>590</v>
+      <c r="A27" s="93" t="s">
+        <v>540</v>
+      </c>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93" t="s">
+        <v>656</v>
+      </c>
+      <c r="D27" s="95" t="s">
+        <v>587</v>
       </c>
       <c r="E27" s="65" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -11712,15 +12314,15 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="106" t="s">
-        <v>543</v>
-      </c>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106" t="s">
-        <v>660</v>
-      </c>
-      <c r="D28" s="108" t="s">
-        <v>590</v>
+      <c r="A28" s="93" t="s">
+        <v>541</v>
+      </c>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93" t="s">
+        <v>657</v>
+      </c>
+      <c r="D28" s="95" t="s">
+        <v>587</v>
       </c>
       <c r="E28" s="65" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -11734,15 +12336,15 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="106" t="s">
-        <v>544</v>
-      </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106" t="s">
-        <v>652</v>
-      </c>
-      <c r="D29" s="111" t="s">
-        <v>590</v>
+      <c r="A29" s="93" t="s">
+        <v>542</v>
+      </c>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93" t="s">
+        <v>649</v>
+      </c>
+      <c r="D29" s="98" t="s">
+        <v>587</v>
       </c>
       <c r="E29" s="47" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -11756,15 +12358,15 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="106" t="s">
-        <v>545</v>
-      </c>
-      <c r="B30" s="106"/>
-      <c r="C30" s="106" t="s">
-        <v>653</v>
-      </c>
-      <c r="D30" s="110" t="s">
-        <v>590</v>
+      <c r="A30" s="93" t="s">
+        <v>543</v>
+      </c>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93" t="s">
+        <v>650</v>
+      </c>
+      <c r="D30" s="97" t="s">
+        <v>587</v>
       </c>
       <c r="E30" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -11778,15 +12380,15 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="106" t="s">
-        <v>546</v>
-      </c>
-      <c r="B31" s="106"/>
-      <c r="C31" s="106" t="s">
-        <v>654</v>
-      </c>
-      <c r="D31" s="110" t="s">
-        <v>590</v>
+      <c r="A31" s="93" t="s">
+        <v>544</v>
+      </c>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93" t="s">
+        <v>651</v>
+      </c>
+      <c r="D31" s="97" t="s">
+        <v>587</v>
       </c>
       <c r="E31" s="44" t="str">
         <f t="shared" ref="E31:E33" si="0">"&lt;div class='form-group col-md-4'&gt;
@@ -11799,16 +12401,16 @@
 &lt;/div&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="106" t="s">
-        <v>547</v>
-      </c>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106" t="s">
-        <v>655</v>
-      </c>
-      <c r="D32" s="110" t="s">
-        <v>590</v>
+    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="93" t="s">
+        <v>545</v>
+      </c>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93" t="s">
+        <v>652</v>
+      </c>
+      <c r="D32" s="97" t="s">
+        <v>587</v>
       </c>
       <c r="E32" s="44" t="str">
         <f t="shared" si="0"/>
@@ -11818,16 +12420,16 @@
 &lt;/div&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="106" t="s">
-        <v>548</v>
-      </c>
-      <c r="B33" s="106"/>
-      <c r="C33" s="106" t="s">
-        <v>656</v>
-      </c>
-      <c r="D33" s="110" t="s">
-        <v>590</v>
+    <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="93" t="s">
+        <v>546</v>
+      </c>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93" t="s">
+        <v>653</v>
+      </c>
+      <c r="D33" s="97" t="s">
+        <v>587</v>
       </c>
       <c r="E33" s="44" t="str">
         <f t="shared" si="0"/>
@@ -11837,16 +12439,16 @@
 &lt;/div&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="106" t="s">
-        <v>552</v>
-      </c>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106" t="s">
-        <v>657</v>
+    <row r="34" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A34" s="93" t="s">
+        <v>550</v>
+      </c>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93" t="s">
+        <v>654</v>
       </c>
       <c r="D34" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E34" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -11867,16 +12469,16 @@
 &lt;/div&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="106" t="s">
-        <v>553</v>
-      </c>
-      <c r="B35" s="106"/>
-      <c r="C35" s="106" t="s">
-        <v>658</v>
-      </c>
-      <c r="D35" s="109" t="s">
-        <v>590</v>
+    <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="93" t="s">
+        <v>551</v>
+      </c>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93" t="s">
+        <v>655</v>
+      </c>
+      <c r="D35" s="96" t="s">
+        <v>587</v>
       </c>
       <c r="E35" s="44" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
@@ -11897,21 +12499,22 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="5"/>
+    <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E16"/>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.42578125" customWidth="1"/>
     <col min="7" max="7" width="187.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11920,112 +12523,129 @@
         <v>257</v>
       </c>
       <c r="B1" s="52" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1" s="52" t="s">
         <v>554</v>
       </c>
-      <c r="C1" s="52" t="s">
-        <v>555</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>556</v>
-      </c>
       <c r="E1" s="52" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>562</v>
+        <v>658</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>558</v>
+        <v>659</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>560</v>
+        <v>660</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>559</v>
+        <v>661</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>561</v>
+        <v>662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G11" s="15" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="101" t="s">
+        <v>574</v>
+      </c>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
+      <c r="G12" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="104"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="106"/>
+      <c r="G13" s="18" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="81" t="s">
-        <v>577</v>
-      </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83"/>
-      <c r="G12" s="20" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="104"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="106"/>
+      <c r="G14" s="18" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="G13" s="18" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106"/>
+      <c r="G15" s="18" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
-      <c r="G14" s="18" t="s">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="107"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
+      <c r="G16" s="18" t="s">
         <v>456</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="G15" s="18" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
-      <c r="G16" s="18" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G17" s="33" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -12034,7 +12654,7 @@
       <c r="D18" s="54"/>
       <c r="E18" s="55"/>
       <c r="G18" s="33" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -12043,7 +12663,7 @@
       <c r="D19" s="57"/>
       <c r="E19" s="58"/>
       <c r="G19" s="33" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12052,7 +12672,148 @@
       <c r="D20" s="60"/>
       <c r="E20" s="61"/>
       <c r="G20" s="33" t="s">
-        <v>462</v>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92" t="s">
+        <v>609</v>
+      </c>
+      <c r="E26" s="114" t="s">
+        <v>586</v>
+      </c>
+      <c r="F26" s="114" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" s="48" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B27" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="F27" s="44" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B27&amp;"'&gt;&lt;b&gt;"&amp;D27&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;B27&amp;"' name='"&amp;B27&amp;"'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='table_id'&gt;&lt;b&gt;Record ID&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='table_id' name='table_id'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" s="48" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B28" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F28" s="113" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B28&amp;"'&gt;&lt;b&gt;"&amp;D28&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='"&amp;B28&amp;"' name='"&amp;B28&amp;"'  placeholder='Enter "&amp;D28&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='organization_name'&gt;&lt;b&gt;Applicant&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='organization_name' name='organization_name'  placeholder='Enter Applicant'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" s="48" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B29" s="52" t="s">
+        <v>553</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E29" s="115" t="s">
+        <v>587</v>
+      </c>
+      <c r="F29" s="113" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B29&amp;"'&gt;&lt;b&gt;"&amp;D29&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='"&amp;B29&amp;"' name='"&amp;B29&amp;"'  placeholder='Enter "&amp;D29&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='overall_risk_rating'&gt;&lt;b&gt;Overall Risk Rating&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='overall_risk_rating' name='overall_risk_rating'  placeholder='Enter Overall Risk Rating'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="B30" s="52" t="s">
+        <v>554</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F30" s="44" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B30&amp;"'&gt;&lt;b&gt;"&amp;D30&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='"&amp;B30&amp;"' name='"&amp;B30&amp;"'  placeholder='Enter "&amp;D30&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='pre_award_assesment_report'&gt;&lt;b&gt;Pre-Award Assessment Attachment&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='pre_award_assesment_report' name='pre_award_assesment_report'  placeholder='Enter Pre-Award Assessment Attachment'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="B31" s="52" t="s">
+        <v>478</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="44" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B31&amp;"'&gt;&lt;b&gt;"&amp;D31&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;B31&amp;"' name='"&amp;B31&amp;"'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='recommendation'&gt;&lt;b&gt;Recommendation&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='recommendation' name='recommendation'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -12060,18 +12821,19 @@
     <mergeCell ref="B12:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="9"/>
+    <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12084,7 +12846,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>375</v>
@@ -12095,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C2" s="29">
         <v>1</v>
@@ -12106,7 +12868,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C3" s="29">
         <v>1</v>
@@ -12117,7 +12879,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C4" s="29">
         <v>1</v>
@@ -12128,7 +12890,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C5" s="29">
         <v>1</v>

--- a/web/database_design.xlsx
+++ b/web/database_design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="6240" tabRatio="957" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="6240" tabRatio="957" firstSheet="18" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="key input fields" sheetId="55" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <definedName name="OLE_LINK1" localSheetId="10">subrecipient_infor!$A$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="694">
   <si>
     <t>1.0 Grant Information</t>
   </si>
@@ -5339,6 +5340,39 @@
   </si>
   <si>
     <t>Options are: Fixed Amount Award/cooperative  Agreement/Contract/Assistance/Task order/Other – specify</t>
+  </si>
+  <si>
+    <t>Currently Active</t>
+  </si>
+  <si>
+    <t>Salaries</t>
+  </si>
+  <si>
+    <t>Fridge Benefits</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Supplies</t>
+  </si>
+  <si>
+    <t>Other Direct Costs</t>
+  </si>
+  <si>
+    <t>Indirect Costs</t>
+  </si>
+  <si>
+    <t>Implementation Budget</t>
+  </si>
+  <si>
+    <t>Cost Share</t>
+  </si>
+  <si>
+    <t>current_period_receipts</t>
   </si>
 </sst>
 </file>
@@ -5348,7 +5382,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy:mm:dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5422,6 +5456,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -5473,7 +5514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -5700,11 +5741,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
@@ -5902,6 +6048,58 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5944,38 +6142,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6526,8 +6787,8 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6729,13 +6990,13 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="134" t="s">
         <v>386</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -6814,10 +7075,10 @@
       <c r="D22" s="62" t="s">
         <v>663</v>
       </c>
-      <c r="E22" s="117" t="s">
+      <c r="E22" s="103" t="s">
         <v>587</v>
       </c>
-      <c r="F22" s="116" t="s">
+      <c r="F22" s="102" t="s">
         <v>679</v>
       </c>
     </row>
@@ -6831,7 +7092,7 @@
       <c r="D23" s="62" t="s">
         <v>664</v>
       </c>
-      <c r="E23" s="117" t="s">
+      <c r="E23" s="103" t="s">
         <v>588</v>
       </c>
       <c r="F23" s="44" t="str">
@@ -6859,11 +7120,11 @@
       <c r="D24" s="62" t="s">
         <v>665</v>
       </c>
-      <c r="E24" s="117" t="s">
+      <c r="E24" s="103" t="s">
         <v>587</v>
       </c>
       <c r="F24" s="65" t="str">
-        <f t="shared" ref="F24" si="0">"&lt;div class='form-group col-md-4'&gt;
+        <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B24&amp;"'&gt;&lt;b&gt;"&amp;D24&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input type='input' class='form-control' id='"&amp;B24&amp;"' name='"&amp;B24&amp;"'  placeholder='Enter "&amp;D24&amp;"'/&gt;
 &lt;/div&gt;"</f>
@@ -6883,10 +7144,10 @@
       <c r="C25" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="D25" s="117" t="s">
+      <c r="D25" s="103" t="s">
         <v>666</v>
       </c>
-      <c r="E25" s="117" t="s">
+      <c r="E25" s="103" t="s">
         <v>588</v>
       </c>
       <c r="F25" s="44" t="str">
@@ -6904,21 +7165,21 @@
 &lt;/div&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="B26" s="80" t="s">
         <v>231</v>
       </c>
       <c r="C26" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="D26" s="117" t="s">
+      <c r="D26" s="103" t="s">
         <v>667</v>
       </c>
-      <c r="E26" s="117" t="s">
+      <c r="E26" s="103" t="s">
         <v>587</v>
       </c>
       <c r="F26" s="65" t="str">
-        <f t="shared" ref="F26" si="1">"&lt;div class='form-group col-md-4'&gt;
+        <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B26&amp;"'&gt;&lt;b&gt;"&amp;D26&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input type='input' class='form-control' id='"&amp;B26&amp;"' name='"&amp;B26&amp;"'  placeholder='Enter "&amp;D26&amp;"'/&gt;
 &lt;/div&gt;"</f>
@@ -6932,13 +7193,13 @@
       <c r="B27" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="118">
+      <c r="C27" s="104">
         <v>44564</v>
       </c>
-      <c r="D27" s="117" t="s">
+      <c r="D27" s="103" t="s">
         <v>668</v>
       </c>
-      <c r="E27" s="117" t="s">
+      <c r="E27" s="103" t="s">
         <v>610</v>
       </c>
       <c r="F27" s="65" t="str">
@@ -6956,13 +7217,13 @@
       <c r="B28" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="118">
+      <c r="C28" s="104">
         <v>46111</v>
       </c>
-      <c r="D28" s="117" t="s">
+      <c r="D28" s="103" t="s">
         <v>668</v>
       </c>
-      <c r="E28" s="117" t="s">
+      <c r="E28" s="103" t="s">
         <v>610</v>
       </c>
       <c r="F28" s="65" t="str">
@@ -6986,10 +7247,10 @@
       <c r="C29" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="117" t="s">
+      <c r="D29" s="103" t="s">
         <v>669</v>
       </c>
-      <c r="E29" s="117" t="s">
+      <c r="E29" s="103" t="s">
         <v>588</v>
       </c>
       <c r="F29" s="44" t="str">
@@ -7017,10 +7278,10 @@
       <c r="C30" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="D30" s="117" t="s">
+      <c r="D30" s="103" t="s">
         <v>670</v>
       </c>
-      <c r="E30" s="117" t="s">
+      <c r="E30" s="103" t="s">
         <v>588</v>
       </c>
       <c r="F30" s="44" t="str">
@@ -7042,16 +7303,16 @@
       <c r="A31" t="s">
         <v>242</v>
       </c>
-      <c r="B31" s="119" t="s">
+      <c r="B31" s="105" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D31" s="117" t="s">
+      <c r="D31" s="103" t="s">
         <v>671</v>
       </c>
-      <c r="E31" s="117" t="s">
+      <c r="E31" s="103" t="s">
         <v>588</v>
       </c>
       <c r="F31" s="44" t="str">
@@ -7076,10 +7337,10 @@
       <c r="C32" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D32" s="117" t="s">
+      <c r="D32" s="103" t="s">
         <v>673</v>
       </c>
-      <c r="E32" s="117" t="s">
+      <c r="E32" s="103" t="s">
         <v>588</v>
       </c>
       <c r="F32" s="44" t="str">
@@ -7107,14 +7368,14 @@
       <c r="C33" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D33" s="117" t="s">
+      <c r="D33" s="103" t="s">
         <v>674</v>
       </c>
-      <c r="E33" s="117" t="s">
+      <c r="E33" s="103" t="s">
         <v>587</v>
       </c>
       <c r="F33" s="65" t="str">
-        <f t="shared" ref="F33" si="2">"&lt;div class='form-group col-md-4'&gt;
+        <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B33&amp;"'&gt;&lt;b&gt;"&amp;D33&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input type='input' class='form-control' id='"&amp;B33&amp;"' name='"&amp;B33&amp;"'  placeholder='Enter "&amp;D33&amp;"'/&gt;
 &lt;/div&gt;"</f>
@@ -7125,16 +7386,16 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="B34" s="119" t="s">
+      <c r="B34" s="105" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="D34" s="117" t="s">
+      <c r="D34" s="103" t="s">
         <v>583</v>
       </c>
-      <c r="E34" s="117" t="s">
+      <c r="E34" s="103" t="s">
         <v>588</v>
       </c>
       <c r="F34" s="44" t="str">
@@ -7153,16 +7414,16 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="B35" s="120" t="s">
+      <c r="B35" s="106" t="s">
         <v>380</v>
       </c>
-      <c r="C35" s="120" t="s">
+      <c r="C35" s="106" t="s">
         <v>329</v>
       </c>
-      <c r="D35" s="117" t="s">
+      <c r="D35" s="103" t="s">
         <v>675</v>
       </c>
-      <c r="E35" s="117" t="s">
+      <c r="E35" s="103" t="s">
         <v>678</v>
       </c>
       <c r="F35" s="44" t="str">
@@ -7176,17 +7437,17 @@
 &lt;/div&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="B36" s="120" t="s">
+    <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="B36" s="106" t="s">
         <v>381</v>
       </c>
-      <c r="C36" s="120" t="s">
+      <c r="C36" s="106" t="s">
         <v>329</v>
       </c>
       <c r="D36" s="62" t="s">
         <v>676</v>
       </c>
-      <c r="E36" s="117" t="s">
+      <c r="E36" s="103" t="s">
         <v>678</v>
       </c>
       <c r="F36" s="44" t="str">
@@ -7201,16 +7462,16 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="B37" s="121" t="s">
+      <c r="B37" s="107" t="s">
         <v>410</v>
       </c>
-      <c r="C37" s="121" t="s">
+      <c r="C37" s="107" t="s">
         <v>383</v>
       </c>
-      <c r="D37" s="120" t="s">
+      <c r="D37" s="106" t="s">
         <v>677</v>
       </c>
-      <c r="E37" s="117" t="s">
+      <c r="E37" s="103" t="s">
         <v>588</v>
       </c>
       <c r="F37" s="44" t="str">
@@ -7236,7 +7497,7 @@
     <mergeCell ref="B6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="E22:E37">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="select">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="select">
       <formula>NOT(ISERROR(SEARCH("select",E22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8593,20 +8854,21 @@
   <sheetPr codeName="Sheet8">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:N2"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
@@ -8778,7 +9040,347 @@
         <v>256</v>
       </c>
     </row>
+    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="108" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="109">
+        <v>1</v>
+      </c>
+      <c r="D20" s="110" t="s">
+        <v>663</v>
+      </c>
+      <c r="E20" s="110" t="s">
+        <v>587</v>
+      </c>
+      <c r="F20" s="111" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>664</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>588</v>
+      </c>
+      <c r="F21" s="113" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B21&amp;"'&gt;&lt;b&gt;"&amp;D21&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;B21&amp;"' name='"&amp;B21&amp;"'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='subrec_id'&gt;&lt;b&gt;Sub Recipient Name&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='subrec_id' name='subrec_id'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="112" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>588</v>
+      </c>
+      <c r="F22" s="113" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B22&amp;"'&gt;&lt;b&gt;"&amp;D22&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;B22&amp;"' name='"&amp;B22&amp;"'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='currently_active'&gt;&lt;b&gt;Currently Active&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='currently_active' name='currently_active'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="112" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="3">
+        <v>100</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>684</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>587</v>
+      </c>
+      <c r="F23" s="119" t="str">
+        <f t="shared" ref="F23:F31" si="0">"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B23&amp;"'&gt;&lt;b&gt;"&amp;D23&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='"&amp;B23&amp;"' name='"&amp;B23&amp;"'  placeholder='Enter "&amp;D23&amp;"'/&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='salaries'&gt;&lt;b&gt;Salaries&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='salaries' name='salaries'  placeholder='Enter Salaries'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="112" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>685</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>587</v>
+      </c>
+      <c r="F24" s="119" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='fringe_benefits'&gt;&lt;b&gt;Fridge Benefits&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='fringe_benefits' name='fringe_benefits'  placeholder='Enter Fridge Benefits'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="112" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>686</v>
+      </c>
+      <c r="E25" s="103" t="s">
+        <v>587</v>
+      </c>
+      <c r="F25" s="119" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='equipment'&gt;&lt;b&gt;Equipment&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='equipment' name='equipment'  placeholder='Enter Equipment'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="114" t="s">
+        <v>387</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="D26" s="103" t="s">
+        <v>687</v>
+      </c>
+      <c r="E26" s="103" t="s">
+        <v>587</v>
+      </c>
+      <c r="F26" s="119" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='travel'&gt;&lt;b&gt;Travel&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='travel' name='travel'  placeholder='Enter Travel'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="112" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>688</v>
+      </c>
+      <c r="E27" s="103" t="s">
+        <v>587</v>
+      </c>
+      <c r="F27" s="119" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='supplies'&gt;&lt;b&gt;Supplies&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='supplies' name='supplies'  placeholder='Enter Supplies'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="112" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" s="103" t="s">
+        <v>689</v>
+      </c>
+      <c r="E28" s="103" t="s">
+        <v>587</v>
+      </c>
+      <c r="F28" s="119" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='other_direct_costs'&gt;&lt;b&gt;Other Direct Costs&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='other_direct_costs' name='other_direct_costs'  placeholder='Enter Other Direct Costs'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="112" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" s="103" t="s">
+        <v>690</v>
+      </c>
+      <c r="E29" s="103" t="s">
+        <v>587</v>
+      </c>
+      <c r="F29" s="119" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='indirect_costs'&gt;&lt;b&gt;Indirect Costs&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='indirect_costs' name='indirect_costs'  placeholder='Enter Indirect Costs'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="112" t="s">
+        <v>265</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" s="103" t="s">
+        <v>691</v>
+      </c>
+      <c r="E30" s="103" t="s">
+        <v>587</v>
+      </c>
+      <c r="F30" s="119" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='implementation_budget'&gt;&lt;b&gt;Implementation Budget&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='implementation_budget' name='implementation_budget'  placeholder='Enter Implementation Budget'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="112" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31" s="103" t="s">
+        <v>692</v>
+      </c>
+      <c r="E31" s="103" t="s">
+        <v>587</v>
+      </c>
+      <c r="F31" s="119" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='cost_share'&gt;&lt;b&gt;Cost Share&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='cost_share' name='cost_share'  placeholder='Enter Cost Share'/&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="115" t="s">
+        <v>402</v>
+      </c>
+      <c r="C32" s="116" t="s">
+        <v>401</v>
+      </c>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117" t="s">
+        <v>588</v>
+      </c>
+      <c r="F32" s="118" t="str">
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;B32&amp;"'&gt;&lt;b&gt;"&amp;D32&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='"&amp;B32&amp;"' name='"&amp;B32&amp;"'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;"</f>
+        <v>&lt;div class='form-group col-md-4'&gt;
+&lt;label for='update_no'&gt;&lt;b&gt;&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;select required='true' class='form-control' id='update_no' name='update_no'  &gt;
+&lt;option value=''&gt;&lt;/option&gt;
+&lt;/select&gt;
+&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="120"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="E20:E21 E24 E31:E32">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="select">
+      <formula>NOT(ISERROR(SEARCH("select",E20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="select">
+      <formula>NOT(ISERROR(SEARCH("select",E22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="select">
+      <formula>NOT(ISERROR(SEARCH("select",E23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="select">
+      <formula>NOT(ISERROR(SEARCH("select",E25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="select">
+      <formula>NOT(ISERROR(SEARCH("select",E26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="select">
+      <formula>NOT(ISERROR(SEARCH("select",E27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="select">
+      <formula>NOT(ISERROR(SEARCH("select",E28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="select">
+      <formula>NOT(ISERROR(SEARCH("select",E29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="select">
+      <formula>NOT(ISERROR(SEARCH("select",E30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8791,7 +9393,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8992,7 +9594,7 @@
   </sheetPr>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -9412,12 +10014,12 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10">
-    <tabColor theme="4"/>
+    <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:AK19"/>
+  <dimension ref="A1:AK37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C23" sqref="C22:C23"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9425,11 +10027,11 @@
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="76" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" customWidth="1"/>
     <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.140625" bestFit="1" customWidth="1"/>
@@ -9698,19 +10300,155 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G17" s="23" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G18" s="23" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G19" s="23" t="s">
         <v>396</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -9722,12 +10460,12 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12">
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9735,7 +10473,7 @@
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -9917,19 +10655,129 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E17" s="13" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E18" s="13" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E19" s="19" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E31" s="5">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="122" t="s">
+        <v>259</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="121" t="s">
+        <v>387</v>
+      </c>
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="122" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="122" t="s">
+        <v>261</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="122" t="s">
+        <v>262</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="122" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="122" t="s">
+        <v>264</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="122" t="s">
+        <v>318</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="122" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="37" t="s">
+        <v>693</v>
+      </c>
+      <c r="E43" s="37">
+        <v>7873468837</v>
       </c>
     </row>
   </sheetData>
@@ -9939,11 +10787,13 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet13"/>
+  <sheetPr codeName="Sheet13">
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10064,12 +10914,12 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="136" t="s">
         <v>343</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -10101,16 +10951,16 @@
       <c r="D10" s="39" t="s">
         <v>514</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="F10" s="135" t="s">
         <v>340</v>
       </c>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="18" t="s">
@@ -10121,31 +10971,31 @@
       <c r="C12" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="F12" s="111" t="s">
+      <c r="F12" s="135" t="s">
         <v>340</v>
       </c>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="F13" s="111" t="s">
+      <c r="F13" s="135" t="s">
         <v>346</v>
       </c>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10161,15 +11011,18 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="113.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
@@ -10426,8 +11279,8 @@
   </sheetPr>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView showGridLines="0" topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10759,7 +11612,7 @@
         <v>588</v>
       </c>
       <c r="E35" s="65" t="str">
-        <f t="shared" ref="E35" si="0">"&lt;div class='form-group col-md-4'&gt;
+        <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;A35&amp;"'&gt;&lt;b&gt;"&amp;C35&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input type='input' class='form-control' id='"&amp;A35&amp;"' name='"&amp;A35&amp;"'  placeholder='Enter "&amp;C35&amp;"'/&gt;
 &lt;/div&gt;"</f>
@@ -10781,7 +11634,7 @@
         <v>587</v>
       </c>
       <c r="E36" s="65" t="str">
-        <f t="shared" ref="E36" si="1">"&lt;div class='form-group col-md-4'&gt;
+        <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;A36&amp;"'&gt;&lt;b&gt;"&amp;C36&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input type='input' class='form-control' id='"&amp;A36&amp;"' name='"&amp;A36&amp;"'  placeholder='Enter "&amp;C36&amp;"'/&gt;
 &lt;/div&gt;"</f>
@@ -10907,7 +11760,7 @@
         <v>588</v>
       </c>
       <c r="E42" s="65" t="str">
-        <f t="shared" ref="E42:E43" si="2">"&lt;div class='form-group col-md-4'&gt;
+        <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;A42&amp;"'&gt;&lt;b&gt;"&amp;C42&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input type='input' class='form-control' id='"&amp;A42&amp;"' name='"&amp;A42&amp;"'  placeholder='Enter "&amp;C42&amp;"'/&gt;
 &lt;/div&gt;"</f>
@@ -10931,7 +11784,10 @@
         <v>587</v>
       </c>
       <c r="E43" s="65" t="str">
-        <f t="shared" si="2"/>
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A43&amp;"'&gt;&lt;b&gt;"&amp;C43&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input type='input' class='form-control' id='"&amp;A43&amp;"' name='"&amp;A43&amp;"'  placeholder='Enter "&amp;C43&amp;"'/&gt;
+&lt;/div&gt;"</f>
         <v>&lt;div class='form-group col-md-4'&gt;
 &lt;label for='attachment_name'&gt;&lt;b&gt;Documents Name(s)&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input type='input' class='form-control' id='attachment_name' name='attachment_name'  placeholder='Enter Documents Name(s)'/&gt;
@@ -11439,7 +12295,7 @@
       <c r="G15" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I15" s="99" t="s">
+      <c r="I15" s="123" t="s">
         <v>441</v>
       </c>
     </row>
@@ -11469,7 +12325,7 @@
       <c r="G16" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="I16" s="99"/>
+      <c r="I16" s="123"/>
     </row>
     <row r="17" spans="2:11" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B17" s="84" t="s">
@@ -11629,11 +12485,11 @@
       <c r="G21" s="85" t="s">
         <v>430</v>
       </c>
-      <c r="I21" s="100" t="s">
+      <c r="I21" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
     </row>
     <row r="22" spans="2:11" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B22" s="84" t="s">
@@ -11659,9 +12515,9 @@
       <c r="G22" s="85" t="s">
         <v>431</v>
       </c>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
     </row>
     <row r="23" spans="2:11" s="15" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="B23" s="81" t="s">
@@ -11967,7 +12823,7 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -12191,7 +13047,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="C16"/>
       <c r="E16" s="44" t="s">
         <v>528</v>
@@ -12391,7 +13247,7 @@
         <v>587</v>
       </c>
       <c r="E31" s="44" t="str">
-        <f t="shared" ref="E31:E33" si="0">"&lt;div class='form-group col-md-4'&gt;
+        <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;A31&amp;"'&gt;&lt;b&gt;"&amp;C31&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input required='true' type='file' class='form-control' id='"&amp;A31&amp;"' name='"&amp;A31&amp;"'  placeholder='Enter "&amp;C31&amp;"'/&gt;
 &lt;/div&gt;"</f>
@@ -12413,7 +13269,10 @@
         <v>587</v>
       </c>
       <c r="E32" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A32&amp;"'&gt;&lt;b&gt;"&amp;C32&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='"&amp;A32&amp;"' name='"&amp;A32&amp;"'  placeholder='Enter "&amp;C32&amp;"'/&gt;
+&lt;/div&gt;"</f>
         <v>&lt;div class='form-group col-md-4'&gt;
 &lt;label for='finance_evaluation_attachment'&gt;&lt;b&gt;Finance Evaluation attachment&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input required='true' type='file' class='form-control' id='finance_evaluation_attachment' name='finance_evaluation_attachment'  placeholder='Enter Finance Evaluation attachment'/&gt;
@@ -12432,7 +13291,10 @@
         <v>587</v>
       </c>
       <c r="E33" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>"&lt;div class='form-group col-md-4'&gt;
+&lt;label for='"&amp;A33&amp;"'&gt;&lt;b&gt;"&amp;C33&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
+&lt;input required='true' type='file' class='form-control' id='"&amp;A33&amp;"' name='"&amp;A33&amp;"'  placeholder='Enter "&amp;C33&amp;"'/&gt;
+&lt;/div&gt;"</f>
         <v>&lt;div class='form-group col-md-4'&gt;
 &lt;label for='other_evaluation_attachment'&gt;&lt;b&gt;Other Evaluation Attachments&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input required='true' type='file' class='form-control' id='other_evaluation_attachment' name='other_evaluation_attachment'  placeholder='Enter Other Evaluation Attachments'/&gt;
@@ -12503,8 +13365,8 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12597,48 +13459,48 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="125" t="s">
         <v>574</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="127"/>
       <c r="G12" s="20" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="104"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="106"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="130"/>
       <c r="G13" s="18" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="104"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="106"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
       <c r="G14" s="18" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="104"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="130"/>
       <c r="G15" s="18" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="107"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="109"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
       <c r="G16" s="18" t="s">
         <v>456</v>
       </c>
@@ -12683,10 +13545,10 @@
       <c r="D26" s="92" t="s">
         <v>609</v>
       </c>
-      <c r="E26" s="114" t="s">
+      <c r="E26" s="100" t="s">
         <v>586</v>
       </c>
-      <c r="F26" s="114" t="s">
+      <c r="F26" s="100" t="s">
         <v>586</v>
       </c>
     </row>
@@ -12718,7 +13580,7 @@
 &lt;/div&gt;</v>
       </c>
     </row>
-    <row r="28" spans="2:7" s="48" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" s="48" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B28" s="52" t="s">
         <v>435</v>
       </c>
@@ -12731,7 +13593,7 @@
       <c r="E28" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="F28" s="113" t="str">
+      <c r="F28" s="99" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B28&amp;"'&gt;&lt;b&gt;"&amp;D28&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='"&amp;B28&amp;"' name='"&amp;B28&amp;"'  placeholder='Enter "&amp;D28&amp;"'/&gt;
@@ -12752,10 +13614,10 @@
       <c r="D29" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="E29" s="115" t="s">
+      <c r="E29" s="101" t="s">
         <v>587</v>
       </c>
-      <c r="F29" s="113" t="str">
+      <c r="F29" s="99" t="str">
         <f>"&lt;div class='form-group col-md-4'&gt;
 &lt;label for='"&amp;B29&amp;"'&gt;&lt;b&gt;"&amp;D29&amp;"&lt;font color='red'&gt;*&lt;/font&gt;&lt;/b&gt;&lt;/label&gt;
 &lt;input onkeypress='return numbers(event);'  type='input' class='form-control' id='"&amp;B29&amp;"' name='"&amp;B29&amp;"'  placeholder='Enter "&amp;D29&amp;"'/&gt;
